--- a/autoTest/BTOSLJ/PageObject/request_lj/Excel/mainflow.xlsx
+++ b/autoTest/BTOSLJ/PageObject/request_lj/Excel/mainflow.xlsx
@@ -1581,7 +1581,7 @@
       </c>
       <c r="H18" s="7" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>500</t>
         </is>
       </c>
       <c r="I18" s="7" t="inlineStr">
@@ -2711,7 +2711,7 @@
       </c>
       <c r="H39" s="7" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>500</t>
         </is>
       </c>
       <c r="I39" s="7" t="inlineStr">
@@ -2807,7 +2807,7 @@
       </c>
       <c r="H41" s="7" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>500</t>
         </is>
       </c>
       <c r="I41" s="7" t="inlineStr">

--- a/autoTest/BTOSLJ/PageObject/request_lj/Excel/mainflow.xlsx
+++ b/autoTest/BTOSLJ/PageObject/request_lj/Excel/mainflow.xlsx
@@ -9,14 +9,14 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="卸船" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="162913" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <name val="等线"/>
       <charset val="134"/>
@@ -38,12 +38,6 @@
       <family val="2"/>
       <sz val="9"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <family val="3"/>
-      <sz val="9"/>
     </font>
   </fonts>
   <fills count="3">
@@ -74,7 +68,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -87,9 +81,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -99,8 +90,21 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
@@ -446,27 +450,32 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I42"/>
+  <dimension ref="A1:I46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="50.1" customHeight="1" outlineLevelCol="0"/>
   <cols>
-    <col width="14" customWidth="1" style="9" min="2" max="2"/>
-    <col width="23.75" customWidth="1" style="9" min="3" max="3"/>
-    <col width="15" bestFit="1" customWidth="1" style="9" min="4" max="4"/>
-    <col width="40.625" customWidth="1" style="9" min="6" max="6"/>
+    <col width="9" customWidth="1" style="4" min="1" max="1"/>
+    <col width="14" customWidth="1" style="12" min="2" max="2"/>
+    <col width="23.75" customWidth="1" style="5" min="3" max="3"/>
+    <col width="15" bestFit="1" customWidth="1" style="7" min="4" max="4"/>
+    <col width="9" customWidth="1" style="6" min="5" max="5"/>
+    <col width="40.625" customWidth="1" style="7" min="6" max="6"/>
+    <col width="9" customWidth="1" style="10" min="7" max="7"/>
+    <col width="9" customWidth="1" style="6" min="8" max="8"/>
+    <col width="9" customWidth="1" style="6" min="9" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" ht="30" customHeight="1" s="9">
+    <row r="1" ht="30" customHeight="1" s="13">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>case_id</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="11" t="inlineStr">
         <is>
           <t>name</t>
         </is>
@@ -491,7 +500,7 @@
           <t>payload</t>
         </is>
       </c>
-      <c r="G1" s="4" t="inlineStr">
+      <c r="G1" s="9" t="inlineStr">
         <is>
           <t>expected_res</t>
         </is>
@@ -507,32 +516,32 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="50.1" customHeight="1" s="9">
-      <c r="A2" s="5" t="n">
+    <row r="2" ht="50.1" customHeight="1" s="13">
+      <c r="A2" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="inlineStr">
+      <c r="B2" s="12" t="inlineStr">
         <is>
           <t>新增船舶</t>
         </is>
       </c>
-      <c r="C2" s="6" t="inlineStr">
+      <c r="C2" s="5" t="inlineStr">
         <is>
           <t>/tos/bps/vessels</t>
         </is>
       </c>
-      <c r="D2" s="6" t="inlineStr">
+      <c r="D2" s="5" t="inlineStr">
         <is>
           <t>新增船舶，
 中文名："接口测试船"</t>
         </is>
       </c>
-      <c r="E2" s="7" t="inlineStr">
+      <c r="E2" s="6" t="inlineStr">
         <is>
           <t>POST</t>
         </is>
       </c>
-      <c r="F2" s="6" t="inlineStr">
+      <c r="F2" s="5" t="inlineStr">
         <is>
           <t>{
     "vslCd": "REQUEST TEST",
@@ -586,87 +595,87 @@
 }</t>
         </is>
       </c>
-      <c r="G2" s="8" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="H2" s="7" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="I2" s="7" t="inlineStr">
+      <c r="G2" s="10" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="H2" s="6" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="I2" s="6" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="50.1" customHeight="1" s="9">
-      <c r="A3" s="5" t="n">
+    <row r="3" ht="50.1" customHeight="1" s="13">
+      <c r="A3" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="6" t="inlineStr">
+      <c r="B3" s="12" t="inlineStr">
         <is>
           <t>删除船舶</t>
         </is>
       </c>
-      <c r="C3" s="6" t="inlineStr">
+      <c r="C3" s="5" t="inlineStr">
         <is>
           <t>/tos/bps/vessels/{vsl_id}</t>
         </is>
       </c>
-      <c r="D3" s="6" t="inlineStr">
+      <c r="D3" s="5" t="inlineStr">
         <is>
           <t>新增船舶，
 中文名："接口测试船"</t>
         </is>
       </c>
-      <c r="E3" s="7" t="inlineStr">
+      <c r="E3" s="6" t="inlineStr">
         <is>
           <t>DELETE</t>
         </is>
       </c>
-      <c r="F3" s="7" t="n"/>
-      <c r="G3" s="8" t="n">
+      <c r="F3" s="6" t="n"/>
+      <c r="G3" s="10" t="n">
         <v>200</v>
       </c>
-      <c r="H3" s="7" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="I3" s="7" t="inlineStr">
+      <c r="H3" s="6" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="I3" s="6" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
       </c>
     </row>
-    <row r="4" ht="50.1" customHeight="1" s="9">
-      <c r="A4" s="5" t="n">
+    <row r="4" ht="50.1" customHeight="1" s="13">
+      <c r="A4" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="6" t="inlineStr">
+      <c r="B4" s="12" t="inlineStr">
         <is>
           <t>新增船期</t>
         </is>
       </c>
-      <c r="C4" s="6" t="inlineStr">
+      <c r="C4" s="5" t="inlineStr">
         <is>
           <t>/tos/bps/schedule</t>
         </is>
       </c>
-      <c r="D4" s="6" t="inlineStr">
+      <c r="D4" s="5" t="inlineStr">
         <is>
           <t>新增船期</t>
         </is>
       </c>
-      <c r="E4" s="7" t="inlineStr">
+      <c r="E4" s="6" t="inlineStr">
         <is>
           <t>POST</t>
         </is>
       </c>
-      <c r="F4" s="6" t="inlineStr">
+      <c r="F4" s="5" t="inlineStr">
         <is>
           <t>{
     "scdVslId": "{vsl_id}",
@@ -717,86 +726,86 @@
 }</t>
         </is>
       </c>
-      <c r="G4" s="8" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="H4" s="7" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="I4" s="7" t="inlineStr">
+      <c r="G4" s="10" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="H4" s="6" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="I4" s="6" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
       </c>
     </row>
-    <row r="5" ht="50.1" customHeight="1" s="9">
-      <c r="A5" s="5" t="n">
+    <row r="5" ht="50.1" customHeight="1" s="13">
+      <c r="A5" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="6" t="inlineStr">
+      <c r="B5" s="12" t="inlineStr">
         <is>
           <t>删除船期</t>
         </is>
       </c>
-      <c r="C5" s="6" t="inlineStr">
+      <c r="C5" s="5" t="inlineStr">
         <is>
           <t>/tos/bps/schedule/{scd_id}</t>
         </is>
       </c>
-      <c r="D5" s="6" t="inlineStr">
+      <c r="D5" s="5" t="inlineStr">
         <is>
           <t>删除船期</t>
         </is>
       </c>
-      <c r="E5" s="7" t="inlineStr">
+      <c r="E5" s="6" t="inlineStr">
         <is>
           <t>DELETE</t>
         </is>
       </c>
-      <c r="F5" s="7" t="n"/>
-      <c r="G5" s="8" t="n">
+      <c r="F5" s="6" t="n"/>
+      <c r="G5" s="10" t="n">
         <v>200</v>
       </c>
-      <c r="H5" s="7" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="I5" s="7" t="inlineStr">
+      <c r="H5" s="6" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="I5" s="6" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
       </c>
     </row>
-    <row r="6" ht="50.1" customHeight="1" s="9">
-      <c r="A6" s="5" t="n">
+    <row r="6" ht="50.1" customHeight="1" s="13">
+      <c r="A6" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="6" t="inlineStr">
+      <c r="B6" s="12" t="inlineStr">
         <is>
           <t>确报</t>
         </is>
       </c>
-      <c r="C6" s="6" t="inlineStr">
+      <c r="C6" s="5" t="inlineStr">
         <is>
           <t>/tos/bps/schedule/updateScdStatus</t>
         </is>
       </c>
-      <c r="D6" s="6" t="inlineStr">
+      <c r="D6" s="5" t="inlineStr">
         <is>
           <t>确报</t>
         </is>
       </c>
-      <c r="E6" s="7" t="inlineStr">
+      <c r="E6" s="6" t="inlineStr">
         <is>
           <t>POST</t>
         </is>
       </c>
-      <c r="F6" s="6" t="inlineStr">
+      <c r="F6" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">{
     "scdId": [
@@ -809,47 +818,47 @@
 </t>
         </is>
       </c>
-      <c r="G6" s="8" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="H6" s="7" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="I6" s="7" t="inlineStr">
+      <c r="G6" s="10" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="H6" s="6" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="I6" s="6" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
       </c>
     </row>
-    <row r="7" ht="50.1" customHeight="1" s="9">
-      <c r="A7" s="5" t="n">
+    <row r="7" ht="50.1" customHeight="1" s="13">
+      <c r="A7" s="4" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="6" t="inlineStr">
+      <c r="B7" s="12" t="inlineStr">
         <is>
           <t>取消确报</t>
         </is>
       </c>
-      <c r="C7" s="6" t="inlineStr">
+      <c r="C7" s="5" t="inlineStr">
         <is>
           <t>/tos/bps/schedule/updateScdStatus</t>
         </is>
       </c>
-      <c r="D7" s="6" t="inlineStr">
+      <c r="D7" s="5" t="inlineStr">
         <is>
           <t>取消确报</t>
         </is>
       </c>
-      <c r="E7" s="7" t="inlineStr">
+      <c r="E7" s="6" t="inlineStr">
         <is>
           <t>POST</t>
         </is>
       </c>
-      <c r="F7" s="6" t="inlineStr">
+      <c r="F7" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">{
     "scdId": [
@@ -862,47 +871,47 @@
 </t>
         </is>
       </c>
-      <c r="G7" s="8" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="H7" s="7" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="I7" s="7" t="inlineStr">
+      <c r="G7" s="10" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="H7" s="6" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="I7" s="6" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
       </c>
     </row>
-    <row r="8" ht="50.1" customHeight="1" s="9">
-      <c r="A8" s="5" t="n">
+    <row r="8" ht="50.1" customHeight="1" s="13">
+      <c r="A8" s="4" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="6" t="inlineStr">
+      <c r="B8" s="12" t="inlineStr">
         <is>
           <t>分区</t>
         </is>
       </c>
-      <c r="C8" s="6" t="inlineStr">
+      <c r="C8" s="5" t="inlineStr">
         <is>
           <t>/tos/bps/schedule/updateScdStatus</t>
         </is>
       </c>
-      <c r="D8" s="6" t="inlineStr">
+      <c r="D8" s="5" t="inlineStr">
         <is>
           <t>分区</t>
         </is>
       </c>
-      <c r="E8" s="7" t="inlineStr">
+      <c r="E8" s="6" t="inlineStr">
         <is>
           <t>POST</t>
         </is>
       </c>
-      <c r="F8" s="6" t="inlineStr">
+      <c r="F8" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">{
     "scdId": [
@@ -915,47 +924,47 @@
 </t>
         </is>
       </c>
-      <c r="G8" s="8" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="H8" s="7" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="I8" s="7" t="inlineStr">
+      <c r="G8" s="10" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="H8" s="6" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="I8" s="6" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
       </c>
     </row>
-    <row r="9" ht="50.1" customHeight="1" s="9">
-      <c r="A9" s="5" t="n">
+    <row r="9" ht="50.1" customHeight="1" s="13">
+      <c r="A9" s="4" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="6" t="inlineStr">
+      <c r="B9" s="12" t="inlineStr">
         <is>
           <t>取消分区</t>
         </is>
       </c>
-      <c r="C9" s="6" t="inlineStr">
+      <c r="C9" s="5" t="inlineStr">
         <is>
           <t>/tos/bps/schedule/updateScdStatus</t>
         </is>
       </c>
-      <c r="D9" s="6" t="inlineStr">
+      <c r="D9" s="5" t="inlineStr">
         <is>
           <t>取消分区</t>
         </is>
       </c>
-      <c r="E9" s="7" t="inlineStr">
+      <c r="E9" s="6" t="inlineStr">
         <is>
           <t>POST</t>
         </is>
       </c>
-      <c r="F9" s="6" t="inlineStr">
+      <c r="F9" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">{
     "scdId": [
@@ -968,47 +977,47 @@
 </t>
         </is>
       </c>
-      <c r="G9" s="8" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="H9" s="7" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="I9" s="7" t="inlineStr">
+      <c r="G9" s="10" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="H9" s="6" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="I9" s="6" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
       </c>
     </row>
-    <row r="10" ht="50.1" customHeight="1" s="9">
-      <c r="A10" s="5" t="n">
+    <row r="10" ht="50.1" customHeight="1" s="13">
+      <c r="A10" s="4" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="6" t="inlineStr">
+      <c r="B10" s="12" t="inlineStr">
         <is>
           <t>新增靠泊计划</t>
         </is>
       </c>
-      <c r="C10" s="6" t="inlineStr">
+      <c r="C10" s="5" t="inlineStr">
         <is>
           <t>/tos/bps/terminalMonitoring/updateBertdrawing</t>
         </is>
       </c>
-      <c r="D10" s="6" t="inlineStr">
+      <c r="D10" s="5" t="inlineStr">
         <is>
           <t>新增靠泊计划</t>
         </is>
       </c>
-      <c r="E10" s="7" t="inlineStr">
+      <c r="E10" s="6" t="inlineStr">
         <is>
           <t>PUT</t>
         </is>
       </c>
-      <c r="F10" s="6" t="inlineStr">
+      <c r="F10" s="5" t="inlineStr">
         <is>
           <t>{
     "vbtScdId": "{scd_id}",
@@ -1029,47 +1038,47 @@
 }</t>
         </is>
       </c>
-      <c r="G10" s="8" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="H10" s="7" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="I10" s="7" t="inlineStr">
+      <c r="G10" s="10" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="H10" s="6" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="I10" s="6" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
       </c>
     </row>
-    <row r="11" ht="50.1" customHeight="1" s="9">
-      <c r="A11" s="5" t="n">
+    <row r="11" ht="50.1" customHeight="1" s="13">
+      <c r="A11" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="6" t="inlineStr">
+      <c r="B11" s="12" t="inlineStr">
         <is>
           <t>新增大船作业计划</t>
         </is>
       </c>
-      <c r="C11" s="6" t="inlineStr">
+      <c r="C11" s="5" t="inlineStr">
         <is>
           <t>/tos/dts/vesselPlan</t>
         </is>
       </c>
-      <c r="D11" s="6" t="inlineStr">
+      <c r="D11" s="5" t="inlineStr">
         <is>
           <t>新增大船作业计划</t>
         </is>
       </c>
-      <c r="E11" s="7" t="inlineStr">
+      <c r="E11" s="6" t="inlineStr">
         <is>
           <t>POST</t>
         </is>
       </c>
-      <c r="F11" s="6" t="inlineStr">
+      <c r="F11" s="5" t="inlineStr">
         <is>
           <t>{
     "dvpTrade": "{trade_type}",
@@ -1141,88 +1150,88 @@
 }</t>
         </is>
       </c>
-      <c r="G11" s="8" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="H11" s="7" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="I11" s="7" t="inlineStr">
+      <c r="G11" s="10" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="H11" s="6" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="I11" s="6" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
       </c>
     </row>
-    <row r="12" ht="50.1" customHeight="1" s="9">
-      <c r="A12" s="5" t="n">
+    <row r="12" ht="50.1" customHeight="1" s="13">
+      <c r="A12" s="4" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="6" t="inlineStr">
+      <c r="B12" s="12" t="inlineStr">
         <is>
           <t>删除大船作业计划</t>
         </is>
       </c>
-      <c r="C12" s="6" t="inlineStr">
+      <c r="C12" s="5" t="inlineStr">
         <is>
           <t>/tos/dts/vesselPlan/{dvp_id}</t>
         </is>
       </c>
-      <c r="D12" s="6" t="inlineStr">
+      <c r="D12" s="5" t="inlineStr">
         <is>
           <t>删除大船作业计划</t>
         </is>
       </c>
-      <c r="E12" s="7" t="inlineStr">
+      <c r="E12" s="6" t="inlineStr">
         <is>
           <t>DELETE</t>
         </is>
       </c>
-      <c r="F12" s="7" t="n"/>
-      <c r="G12" s="8" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="H12" s="7" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="I12" s="7" t="inlineStr">
+      <c r="F12" s="6" t="n"/>
+      <c r="G12" s="10" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="H12" s="6" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="I12" s="6" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
       </c>
     </row>
-    <row r="13" ht="50.1" customHeight="1" s="9">
-      <c r="A13" s="5" t="n">
+    <row r="13" ht="50.1" customHeight="1" s="13">
+      <c r="A13" s="4" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="6" t="inlineStr">
+      <c r="B13" s="12" t="inlineStr">
         <is>
           <t>新增进口舱单</t>
         </is>
       </c>
-      <c r="C13" s="6" t="inlineStr">
+      <c r="C13" s="5" t="inlineStr">
         <is>
           <t>/tos/wms/bills</t>
         </is>
       </c>
-      <c r="D13" s="6" t="inlineStr">
+      <c r="D13" s="5" t="inlineStr">
         <is>
           <t>新增进口舱单</t>
         </is>
       </c>
-      <c r="E13" s="7" t="inlineStr">
+      <c r="E13" s="6" t="inlineStr">
         <is>
           <t>POST</t>
         </is>
       </c>
-      <c r="F13" s="6" t="inlineStr">
+      <c r="F13" s="5" t="inlineStr">
         <is>
           <t>{
     "bilBillNbr": "{bill_no}",
@@ -1263,88 +1272,88 @@
 }</t>
         </is>
       </c>
-      <c r="G13" s="8" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="H13" s="7" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="I13" s="7" t="inlineStr">
+      <c r="G13" s="10" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="H13" s="6" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+      <c r="I13" s="6" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
       </c>
     </row>
-    <row r="14" ht="50.1" customHeight="1" s="9">
-      <c r="A14" s="5" t="n">
+    <row r="14" ht="50.1" customHeight="1" s="13">
+      <c r="A14" s="4" t="n">
         <v>13</v>
       </c>
-      <c r="B14" s="6" t="inlineStr">
+      <c r="B14" s="12" t="inlineStr">
         <is>
           <t>删除进口舱单</t>
         </is>
       </c>
-      <c r="C14" s="6" t="inlineStr">
+      <c r="C14" s="5" t="inlineStr">
         <is>
           <t>/tos/wms/bills/{bil_id}</t>
         </is>
       </c>
-      <c r="D14" s="6" t="inlineStr">
+      <c r="D14" s="5" t="inlineStr">
         <is>
           <t>删除进口舱单</t>
         </is>
       </c>
-      <c r="E14" s="7" t="inlineStr">
+      <c r="E14" s="6" t="inlineStr">
         <is>
           <t>DELETE</t>
         </is>
       </c>
-      <c r="F14" s="7" t="n"/>
-      <c r="G14" s="8" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="H14" s="7" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="I14" s="7" t="inlineStr">
+      <c r="F14" s="6" t="n"/>
+      <c r="G14" s="10" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="H14" s="6" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="I14" s="6" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
       </c>
     </row>
-    <row r="15" ht="50.1" customHeight="1" s="9">
-      <c r="A15" s="5" t="n">
+    <row r="15" ht="50.1" customHeight="1" s="13">
+      <c r="A15" s="4" t="n">
         <v>14</v>
       </c>
-      <c r="B15" s="6" t="inlineStr">
+      <c r="B15" s="12" t="inlineStr">
         <is>
           <t>新增当班任务</t>
         </is>
       </c>
-      <c r="C15" s="6" t="inlineStr">
+      <c r="C15" s="5" t="inlineStr">
         <is>
           <t>/tos/dts/shiftTask/stored</t>
         </is>
       </c>
-      <c r="D15" s="6" t="inlineStr">
+      <c r="D15" s="5" t="inlineStr">
         <is>
           <t>新增当班任务</t>
         </is>
       </c>
-      <c r="E15" s="7" t="inlineStr">
+      <c r="E15" s="6" t="inlineStr">
         <is>
           <t>POST</t>
         </is>
       </c>
-      <c r="F15" s="6" t="inlineStr">
+      <c r="F15" s="5" t="inlineStr">
         <is>
           <t>{
     "dtsShiftTaskEntities": [
@@ -1410,88 +1419,88 @@
 }</t>
         </is>
       </c>
-      <c r="G15" s="8" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="H15" s="7" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="I15" s="7" t="inlineStr">
+      <c r="G15" s="10" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="H15" s="6" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="I15" s="6" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
       </c>
     </row>
-    <row r="16" ht="50.1" customHeight="1" s="9">
-      <c r="A16" s="5" t="n">
+    <row r="16" ht="50.1" customHeight="1" s="13">
+      <c r="A16" s="4" t="n">
         <v>15</v>
       </c>
-      <c r="B16" s="6" t="inlineStr">
+      <c r="B16" s="12" t="inlineStr">
         <is>
           <t>删除当班任务</t>
         </is>
       </c>
-      <c r="C16" s="6" t="inlineStr">
+      <c r="C16" s="5" t="inlineStr">
         <is>
           <t>/tos/dts/shiftTask/{dst_id}</t>
         </is>
       </c>
-      <c r="D16" s="6" t="inlineStr">
+      <c r="D16" s="5" t="inlineStr">
         <is>
           <t>删除当班任务</t>
         </is>
       </c>
-      <c r="E16" s="7" t="inlineStr">
+      <c r="E16" s="6" t="inlineStr">
         <is>
           <t>DELETE</t>
         </is>
       </c>
-      <c r="F16" s="7" t="n"/>
-      <c r="G16" s="8" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="H16" s="7" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="I16" s="7" t="inlineStr">
+      <c r="F16" s="6" t="n"/>
+      <c r="G16" s="10" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="H16" s="6" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="I16" s="6" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
       </c>
     </row>
-    <row r="17" ht="50.1" customHeight="1" s="9">
-      <c r="A17" s="5" t="n">
+    <row r="17" ht="50.1" customHeight="1" s="13">
+      <c r="A17" s="4" t="n">
         <v>16</v>
       </c>
-      <c r="B17" s="6" t="inlineStr">
+      <c r="B17" s="12" t="inlineStr">
         <is>
           <t>理货员出勤</t>
         </is>
       </c>
-      <c r="C17" s="6" t="inlineStr">
+      <c r="C17" s="5" t="inlineStr">
         <is>
           <t>/tos/dts/attdWorker/stored</t>
         </is>
       </c>
-      <c r="D17" s="6" t="inlineStr">
+      <c r="D17" s="5" t="inlineStr">
         <is>
           <t>理货员出勤</t>
         </is>
       </c>
-      <c r="E17" s="7" t="inlineStr">
+      <c r="E17" s="6" t="inlineStr">
         <is>
           <t>POST</t>
         </is>
       </c>
-      <c r="F17" s="6" t="inlineStr">
+      <c r="F17" s="5" t="inlineStr">
         <is>
           <t>{
     "dtsAttdWorkerEntities": [
@@ -1513,47 +1522,47 @@
 }</t>
         </is>
       </c>
-      <c r="G17" s="8" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="H17" s="7" t="inlineStr">
-        <is>
-          <t>500</t>
-        </is>
-      </c>
-      <c r="I17" s="7" t="inlineStr">
+      <c r="G17" s="10" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="H17" s="6" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="I17" s="6" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
       </c>
     </row>
-    <row r="18" ht="50.1" customHeight="1" s="9">
-      <c r="A18" s="5" t="n">
+    <row r="18" ht="50.1" customHeight="1" s="13">
+      <c r="A18" s="4" t="n">
         <v>17</v>
       </c>
-      <c r="B18" s="6" t="inlineStr">
+      <c r="B18" s="12" t="inlineStr">
         <is>
           <t>理货员安排</t>
         </is>
       </c>
-      <c r="C18" s="6" t="inlineStr">
+      <c r="C18" s="5" t="inlineStr">
         <is>
           <t>/tos/dts/shiftTaskTally</t>
         </is>
       </c>
-      <c r="D18" s="6" t="inlineStr">
+      <c r="D18" s="5" t="inlineStr">
         <is>
           <t>理货员安排</t>
         </is>
       </c>
-      <c r="E18" s="7" t="inlineStr">
+      <c r="E18" s="6" t="inlineStr">
         <is>
           <t>POST</t>
         </is>
       </c>
-      <c r="F18" s="6" t="inlineStr">
+      <c r="F18" s="5" t="inlineStr">
         <is>
           <t>{
     "dtsShiftTaskTallyEntityList": [
@@ -1574,47 +1583,47 @@
 }</t>
         </is>
       </c>
-      <c r="G18" s="8" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="H18" s="7" t="inlineStr">
-        <is>
-          <t>500</t>
-        </is>
-      </c>
-      <c r="I18" s="7" t="inlineStr">
+      <c r="G18" s="10" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="H18" s="6" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="I18" s="6" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
       </c>
     </row>
-    <row r="19" ht="50.1" customHeight="1" s="9">
-      <c r="A19" s="5" t="n">
+    <row r="19" ht="50.1" customHeight="1" s="13">
+      <c r="A19" s="4" t="n">
         <v>18</v>
       </c>
-      <c r="B19" s="6" t="inlineStr">
+      <c r="B19" s="12" t="inlineStr">
         <is>
           <t>取消理货员安排</t>
         </is>
       </c>
-      <c r="C19" s="6" t="inlineStr">
+      <c r="C19" s="5" t="inlineStr">
         <is>
           <t>/tos/dts/shiftTaskTally/removeDtsAttworks</t>
         </is>
       </c>
-      <c r="D19" s="6" t="inlineStr">
+      <c r="D19" s="5" t="inlineStr">
         <is>
           <t>取消理货员安排</t>
         </is>
       </c>
-      <c r="E19" s="7" t="inlineStr">
+      <c r="E19" s="6" t="inlineStr">
         <is>
           <t>DELETE</t>
         </is>
       </c>
-      <c r="F19" s="6" t="inlineStr">
+      <c r="F19" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">{
     "sttIds": [
@@ -1624,47 +1633,47 @@
 </t>
         </is>
       </c>
-      <c r="G19" s="8" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="H19" s="7" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="I19" s="7" t="inlineStr">
+      <c r="G19" s="10" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="H19" s="6" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="I19" s="6" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
       </c>
     </row>
-    <row r="20" ht="50.1" customHeight="1" s="9">
-      <c r="A20" s="5" t="n">
+    <row r="20" ht="50.1" customHeight="1" s="13">
+      <c r="A20" s="4" t="n">
         <v>19</v>
       </c>
-      <c r="B20" s="6" t="inlineStr">
+      <c r="B20" s="12" t="inlineStr">
         <is>
           <t>机械出勤</t>
         </is>
       </c>
-      <c r="C20" s="6" t="inlineStr">
+      <c r="C20" s="5" t="inlineStr">
         <is>
           <t>/tos/dts/yardWorkingMachines/stored</t>
         </is>
       </c>
-      <c r="D20" s="6" t="inlineStr">
+      <c r="D20" s="5" t="inlineStr">
         <is>
           <t>机械出勤</t>
         </is>
       </c>
-      <c r="E20" s="7" t="inlineStr">
+      <c r="E20" s="6" t="inlineStr">
         <is>
           <t>POST</t>
         </is>
       </c>
-      <c r="F20" s="6" t="inlineStr">
+      <c r="F20" s="5" t="inlineStr">
         <is>
           <t>{
     "dtsYardWorkingMachinesEntities": [
@@ -1684,47 +1693,47 @@
 }</t>
         </is>
       </c>
-      <c r="G20" s="8" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="H20" s="7" t="inlineStr">
-        <is>
-          <t>500</t>
-        </is>
-      </c>
-      <c r="I20" s="7" t="inlineStr">
+      <c r="G20" s="10" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="H20" s="6" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="I20" s="6" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
       </c>
     </row>
-    <row r="21" ht="50.1" customHeight="1" s="9">
-      <c r="A21" s="5" t="n">
+    <row r="21" ht="50.1" customHeight="1" s="13">
+      <c r="A21" s="4" t="n">
         <v>20</v>
       </c>
-      <c r="B21" s="6" t="inlineStr">
+      <c r="B21" s="12" t="inlineStr">
         <is>
           <t>安排司机</t>
         </is>
       </c>
-      <c r="C21" s="6" t="inlineStr">
+      <c r="C21" s="5" t="inlineStr">
         <is>
           <t>/tos/dts/yardWorkingMachines/stored</t>
         </is>
       </c>
-      <c r="D21" s="6" t="inlineStr">
+      <c r="D21" s="5" t="inlineStr">
         <is>
           <t>安排司机</t>
         </is>
       </c>
-      <c r="E21" s="7" t="inlineStr">
+      <c r="E21" s="6" t="inlineStr">
         <is>
           <t>POST</t>
         </is>
       </c>
-      <c r="F21" s="6" t="inlineStr">
+      <c r="F21" s="5" t="inlineStr">
         <is>
           <t>{
     "dtsYardWorkingMachinesEntities": [
@@ -1751,47 +1760,47 @@
 }</t>
         </is>
       </c>
-      <c r="G21" s="8" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="H21" s="7" t="inlineStr">
-        <is>
-          <t>500</t>
-        </is>
-      </c>
-      <c r="I21" s="7" t="inlineStr">
+      <c r="G21" s="10" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="H21" s="6" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="I21" s="6" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
       </c>
     </row>
-    <row r="22" ht="50.1" customHeight="1" s="9">
-      <c r="A22" s="5" t="n">
+    <row r="22" ht="50.1" customHeight="1" s="13">
+      <c r="A22" s="4" t="n">
         <v>21</v>
       </c>
-      <c r="B22" s="6" t="inlineStr">
+      <c r="B22" s="12" t="inlineStr">
         <is>
           <t>指导员配置-机械人员配置</t>
         </is>
       </c>
-      <c r="C22" s="6" t="inlineStr">
+      <c r="C22" s="5" t="inlineStr">
         <is>
           <t>/tos/dts/shiftTaskConfig/{instructor_config}/report</t>
         </is>
       </c>
-      <c r="D22" s="6" t="inlineStr">
+      <c r="D22" s="5" t="inlineStr">
         <is>
           <t>打开作业票汇报配置，为指导员配置做机械安排</t>
         </is>
       </c>
-      <c r="E22" s="7" t="inlineStr">
+      <c r="E22" s="6" t="inlineStr">
         <is>
           <t>POST</t>
         </is>
       </c>
-      <c r="F22" s="6" t="inlineStr">
+      <c r="F22" s="5" t="inlineStr">
         <is>
           <t>{
     "configId": "{instructor_config}",
@@ -1817,141 +1826,141 @@
 }</t>
         </is>
       </c>
-      <c r="G22" s="8" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="H22" s="7" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="I22" s="7" t="inlineStr">
+      <c r="G22" s="10" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="H22" s="6" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="I22" s="6" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
       </c>
     </row>
-    <row r="23" ht="50.1" customHeight="1" s="9">
-      <c r="A23" s="5" t="n">
+    <row r="23" ht="50.1" customHeight="1" s="13">
+      <c r="A23" s="4" t="n">
         <v>22</v>
       </c>
-      <c r="B23" s="6" t="inlineStr">
+      <c r="B23" s="12" t="inlineStr">
         <is>
           <t>指导员配置-匹配司机</t>
         </is>
       </c>
-      <c r="C23" s="6" t="inlineStr">
+      <c r="C23" s="5" t="inlineStr">
         <is>
           <t>/tos/dts/shiftTaskConfig/match</t>
         </is>
       </c>
-      <c r="D23" s="6" t="inlineStr">
+      <c r="D23" s="5" t="inlineStr">
         <is>
           <t>打开作业票汇报配置，为指导员配置的机械匹配司机</t>
         </is>
       </c>
-      <c r="E23" s="7" t="inlineStr">
+      <c r="E23" s="6" t="inlineStr">
         <is>
           <t>POST</t>
         </is>
       </c>
-      <c r="F23" s="7" t="inlineStr">
+      <c r="F23" s="6" t="inlineStr">
         <is>
           <t>{
     "stcId": "{instructor_config}" 
 }</t>
         </is>
       </c>
-      <c r="G23" s="8" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="H23" s="7" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="I23" s="7" t="inlineStr">
+      <c r="G23" s="10" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="H23" s="6" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+      <c r="I23" s="6" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
       </c>
     </row>
-    <row r="24" ht="50.1" customHeight="1" s="9">
-      <c r="A24" s="5" t="n">
+    <row r="24" ht="50.1" customHeight="1" s="13">
+      <c r="A24" s="4" t="n">
         <v>23</v>
       </c>
-      <c r="B24" s="6" t="inlineStr">
+      <c r="B24" s="12" t="inlineStr">
         <is>
           <t>取消机械人员配置</t>
         </is>
       </c>
-      <c r="C24" s="6" t="inlineStr">
+      <c r="C24" s="5" t="inlineStr">
         <is>
           <t>/tos/dts/shiftTaskConfigMachine/remove</t>
         </is>
       </c>
-      <c r="D24" s="6" t="inlineStr">
+      <c r="D24" s="5" t="inlineStr">
         <is>
           <t>取消机械人员配置</t>
         </is>
       </c>
-      <c r="E24" s="7" t="inlineStr">
+      <c r="E24" s="6" t="inlineStr">
         <is>
           <t>DELETE</t>
         </is>
       </c>
-      <c r="F24" s="7" t="inlineStr">
+      <c r="F24" s="6" t="inlineStr">
         <is>
           <t>[
     "{cma_id}"
 ]</t>
         </is>
       </c>
-      <c r="G24" s="8" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="H24" s="7" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="I24" s="7" t="inlineStr">
+      <c r="G24" s="10" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="H24" s="6" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="I24" s="6" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
       </c>
     </row>
-    <row r="25" ht="50.1" customHeight="1" s="9">
-      <c r="A25" s="5" t="n">
+    <row r="25" ht="50.1" customHeight="1" s="13">
+      <c r="A25" s="4" t="n">
         <v>24</v>
       </c>
-      <c r="B25" s="6" t="inlineStr">
+      <c r="B25" s="12" t="inlineStr">
         <is>
           <t>删除机械安排</t>
         </is>
       </c>
-      <c r="C25" s="6" t="inlineStr">
+      <c r="C25" s="5" t="inlineStr">
         <is>
           <t>/tos/dts/shiftTaskMachines/deleteMachines</t>
         </is>
       </c>
-      <c r="D25" s="6" t="inlineStr">
+      <c r="D25" s="5" t="inlineStr">
         <is>
           <t>删除机械安排</t>
         </is>
       </c>
-      <c r="E25" s="7" t="inlineStr">
+      <c r="E25" s="6" t="inlineStr">
         <is>
           <t>DELETE</t>
         </is>
       </c>
-      <c r="F25" s="6" t="inlineStr">
+      <c r="F25" s="5" t="inlineStr">
         <is>
           <t>{
     "dmcIds": [
@@ -1962,47 +1971,47 @@
 }</t>
         </is>
       </c>
-      <c r="G25" s="8" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="H25" s="7" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="I25" s="7" t="inlineStr">
+      <c r="G25" s="10" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="H25" s="6" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="I25" s="6" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
       </c>
     </row>
-    <row r="26" ht="50.1" customHeight="1" s="9">
-      <c r="A26" s="5" t="n">
+    <row r="26" ht="50.1" customHeight="1" s="13">
+      <c r="A26" s="4" t="n">
         <v>25</v>
       </c>
-      <c r="B26" s="6" t="inlineStr">
+      <c r="B26" s="12" t="inlineStr">
         <is>
           <t>劳务队配置</t>
         </is>
       </c>
-      <c r="C26" s="6" t="inlineStr">
+      <c r="C26" s="5" t="inlineStr">
         <is>
           <t>/tos/dts/shiftTaskConfigMacusr/updateShiftWkgroup</t>
         </is>
       </c>
-      <c r="D26" s="6" t="inlineStr">
+      <c r="D26" s="5" t="inlineStr">
         <is>
           <t>打开作业票汇报配置，为指导员配置做劳务队配置</t>
         </is>
       </c>
-      <c r="E26" s="7" t="inlineStr">
+      <c r="E26" s="6" t="inlineStr">
         <is>
           <t>PUT</t>
         </is>
       </c>
-      <c r="F26" s="6" t="inlineStr">
+      <c r="F26" s="5" t="inlineStr">
         <is>
           <t>{
     "dtsShiftTaskWkgroupList": [
@@ -2042,47 +2051,47 @@
 }</t>
         </is>
       </c>
-      <c r="G26" s="8" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="H26" s="7" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="I26" s="7" t="inlineStr">
+      <c r="G26" s="10" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="H26" s="6" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="I26" s="6" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
       </c>
     </row>
-    <row r="27" ht="50.1" customHeight="1" s="9">
-      <c r="A27" s="5" t="n">
+    <row r="27" ht="50.1" customHeight="1" s="13">
+      <c r="A27" s="4" t="n">
         <v>26</v>
       </c>
-      <c r="B27" s="6" t="inlineStr">
+      <c r="B27" s="12" t="inlineStr">
         <is>
           <t>删除劳务队配置</t>
         </is>
       </c>
-      <c r="C27" s="6" t="inlineStr">
+      <c r="C27" s="5" t="inlineStr">
         <is>
           <t>/tos/dts/shiftTaskConfigMacusr/deleteConfigMacusr</t>
         </is>
       </c>
-      <c r="D27" s="6" t="inlineStr">
+      <c r="D27" s="5" t="inlineStr">
         <is>
           <t>打开作业票汇报配置，为指导员配置删除劳务队配置</t>
         </is>
       </c>
-      <c r="E27" s="7" t="inlineStr">
+      <c r="E27" s="6" t="inlineStr">
         <is>
           <t>DELETE</t>
         </is>
       </c>
-      <c r="F27" s="6" t="inlineStr">
+      <c r="F27" s="5" t="inlineStr">
         <is>
           <t>{
     "stdId": [],
@@ -2095,47 +2104,47 @@
 }</t>
         </is>
       </c>
-      <c r="G27" s="8" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="H27" s="7" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="I27" s="7" t="inlineStr">
+      <c r="G27" s="10" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="H27" s="6" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="I27" s="6" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
       </c>
     </row>
-    <row r="28" ht="50.1" customHeight="1" s="9">
-      <c r="A28" s="5" t="n">
+    <row r="28" ht="50.1" customHeight="1" s="13">
+      <c r="A28" s="4" t="n">
         <v>27</v>
       </c>
-      <c r="B28" s="6" t="inlineStr">
+      <c r="B28" s="12" t="inlineStr">
         <is>
           <t>实际靠泊</t>
         </is>
       </c>
-      <c r="C28" s="6" t="inlineStr">
+      <c r="C28" s="5" t="inlineStr">
         <is>
           <t>/tos/bps/vesselBerthes/updateVesselBerthes</t>
         </is>
       </c>
-      <c r="D28" s="6" t="inlineStr">
+      <c r="D28" s="5" t="inlineStr">
         <is>
           <t>实际靠泊</t>
         </is>
       </c>
-      <c r="E28" s="7" t="inlineStr">
+      <c r="E28" s="6" t="inlineStr">
         <is>
           <t>POST</t>
         </is>
       </c>
-      <c r="F28" s="6" t="inlineStr">
+      <c r="F28" s="5" t="inlineStr">
         <is>
           <t>{
     "vbtScdId": "{scd_id}",
@@ -2165,47 +2174,47 @@
 }</t>
         </is>
       </c>
-      <c r="G28" s="8" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="H28" s="7" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="I28" s="7" t="inlineStr">
+      <c r="G28" s="10" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="H28" s="6" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="I28" s="6" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
       </c>
     </row>
-    <row r="29" ht="50.1" customHeight="1" s="9">
-      <c r="A29" s="5" t="n">
+    <row r="29" ht="50.1" customHeight="1" s="13">
+      <c r="A29" s="4" t="n">
         <v>28</v>
       </c>
-      <c r="B29" s="6" t="inlineStr">
+      <c r="B29" s="12" t="inlineStr">
         <is>
           <t>卸船汇报</t>
         </is>
       </c>
-      <c r="C29" s="6" t="inlineStr">
+      <c r="C29" s="5" t="inlineStr">
         <is>
           <t>/tos/wms/tally/discharge/report</t>
         </is>
       </c>
-      <c r="D29" s="6" t="inlineStr">
+      <c r="D29" s="5" t="inlineStr">
         <is>
           <t>卸船汇报</t>
         </is>
       </c>
-      <c r="E29" s="7" t="inlineStr">
+      <c r="E29" s="6" t="inlineStr">
         <is>
           <t>POST</t>
         </is>
       </c>
-      <c r="F29" s="6" t="inlineStr">
+      <c r="F29" s="5" t="inlineStr">
         <is>
           <t>{
     "barCode": "{barcode}",
@@ -2254,182 +2263,182 @@
 }</t>
         </is>
       </c>
-      <c r="G29" s="8" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="H29" s="7" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="I29" s="7" t="inlineStr">
+      <c r="G29" s="10" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="H29" s="6" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="I29" s="6" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
       </c>
     </row>
-    <row r="30" ht="50.1" customHeight="1" s="9">
-      <c r="A30" s="5" t="n">
+    <row r="30" ht="50.1" customHeight="1" s="13">
+      <c r="A30" s="4" t="n">
         <v>29</v>
       </c>
-      <c r="B30" s="6" t="inlineStr">
+      <c r="B30" s="12" t="inlineStr">
         <is>
           <t>删除汇报</t>
         </is>
       </c>
-      <c r="C30" s="6" t="inlineStr">
+      <c r="C30" s="5" t="inlineStr">
         <is>
           <t>/tos/wms/WmsGoodsOccupsActivities/remove</t>
         </is>
       </c>
-      <c r="D30" s="6" t="inlineStr">
+      <c r="D30" s="5" t="inlineStr">
         <is>
           <t>删除汇报</t>
         </is>
       </c>
-      <c r="E30" s="7" t="inlineStr">
+      <c r="E30" s="6" t="inlineStr">
         <is>
           <t>POST</t>
         </is>
       </c>
-      <c r="F30" s="7" t="inlineStr">
+      <c r="F30" s="6" t="inlineStr">
         <is>
           <t>["{goa_id}"]</t>
         </is>
       </c>
-      <c r="G30" s="8" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="H30" s="7" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="I30" s="7" t="inlineStr">
+      <c r="G30" s="10" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="H30" s="6" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+      <c r="I30" s="6" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
       </c>
     </row>
-    <row r="31" ht="50.1" customHeight="1" s="9">
-      <c r="A31" s="5" t="n">
+    <row r="31" ht="50.1" customHeight="1" s="13">
+      <c r="A31" s="4" t="n">
         <v>30</v>
       </c>
-      <c r="B31" s="6" t="inlineStr">
+      <c r="B31" s="12" t="inlineStr">
         <is>
           <t>理货动态审核</t>
         </is>
       </c>
-      <c r="C31" s="6" t="inlineStr">
+      <c r="C31" s="5" t="inlineStr">
         <is>
           <t>/tos/wms/WmsGoodsOccupsActivities/task/audit/status/{goa_id}</t>
         </is>
       </c>
-      <c r="D31" s="6" t="inlineStr">
+      <c r="D31" s="5" t="inlineStr">
         <is>
           <t>理货动态</t>
         </is>
       </c>
-      <c r="E31" s="7" t="inlineStr">
+      <c r="E31" s="6" t="inlineStr">
         <is>
           <t>PUT</t>
         </is>
       </c>
-      <c r="F31" s="7" t="inlineStr">
+      <c r="F31" s="6" t="inlineStr">
         <is>
           <t>{"goaAduitFlag": "Y" }</t>
         </is>
       </c>
-      <c r="G31" s="8" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="H31" s="7" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="I31" s="7" t="inlineStr">
+      <c r="G31" s="10" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="H31" s="6" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="I31" s="6" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
       </c>
     </row>
-    <row r="32" ht="50.1" customHeight="1" s="9">
-      <c r="A32" s="5" t="n">
+    <row r="32" ht="50.1" customHeight="1" s="13">
+      <c r="A32" s="4" t="n">
         <v>31</v>
       </c>
-      <c r="B32" s="6" t="inlineStr">
+      <c r="B32" s="12" t="inlineStr">
         <is>
           <t>理货动态取消审核</t>
         </is>
       </c>
-      <c r="C32" s="6" t="inlineStr">
+      <c r="C32" s="5" t="inlineStr">
         <is>
           <t>/tos/wms/WmsGoodsOccupsActivities/task/audit/status/{goa_id}</t>
         </is>
       </c>
-      <c r="D32" s="6" t="inlineStr">
+      <c r="D32" s="5" t="inlineStr">
         <is>
           <t>理货动态取消审核</t>
         </is>
       </c>
-      <c r="E32" s="7" t="inlineStr">
+      <c r="E32" s="6" t="inlineStr">
         <is>
           <t>PUT</t>
         </is>
       </c>
-      <c r="F32" s="7" t="inlineStr">
+      <c r="F32" s="6" t="inlineStr">
         <is>
           <t>{"goaAduitFlag": "N" }</t>
         </is>
       </c>
-      <c r="G32" s="8" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="H32" s="7" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="I32" s="7" t="inlineStr">
+      <c r="G32" s="10" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="H32" s="6" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="I32" s="6" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
       </c>
     </row>
-    <row r="33" ht="50.1" customHeight="1" s="9">
-      <c r="A33" s="5" t="n">
+    <row r="33" ht="50.1" customHeight="1" s="13">
+      <c r="A33" s="4" t="n">
         <v>32</v>
       </c>
-      <c r="B33" s="6" t="inlineStr">
+      <c r="B33" s="12" t="inlineStr">
         <is>
           <t>工班任务审核</t>
         </is>
       </c>
-      <c r="C33" s="6" t="inlineStr">
+      <c r="C33" s="5" t="inlineStr">
         <is>
           <t>/tos/dts/shiftTaskAudit</t>
         </is>
       </c>
-      <c r="D33" s="6" t="inlineStr">
+      <c r="D33" s="5" t="inlineStr">
         <is>
           <t>工班任务审核</t>
         </is>
       </c>
-      <c r="E33" s="7" t="inlineStr">
+      <c r="E33" s="6" t="inlineStr">
         <is>
           <t>POST</t>
         </is>
       </c>
-      <c r="F33" s="6" t="inlineStr">
+      <c r="F33" s="5" t="inlineStr">
         <is>
           <t>{
     "staPiles": "N",
@@ -2440,215 +2449,215 @@
 }</t>
         </is>
       </c>
-      <c r="G33" s="8" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="H33" s="7" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="I33" s="7" t="inlineStr">
+      <c r="G33" s="10" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="H33" s="6" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="I33" s="6" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
       </c>
     </row>
-    <row r="34" ht="50.1" customHeight="1" s="9">
-      <c r="A34" s="5" t="n">
+    <row r="34" ht="50.1" customHeight="1" s="13">
+      <c r="A34" s="4" t="n">
         <v>33</v>
       </c>
-      <c r="B34" s="6" t="inlineStr">
+      <c r="B34" s="12" t="inlineStr">
         <is>
           <t>工班任务取消审核</t>
         </is>
       </c>
-      <c r="C34" s="6" t="inlineStr">
+      <c r="C34" s="5" t="inlineStr">
         <is>
           <t>/tos/dts/shiftTaskAudit/cancel</t>
         </is>
       </c>
-      <c r="D34" s="6" t="inlineStr">
+      <c r="D34" s="5" t="inlineStr">
         <is>
           <t>工班任务取消审核</t>
         </is>
       </c>
-      <c r="E34" s="7" t="inlineStr">
+      <c r="E34" s="6" t="inlineStr">
         <is>
           <t>PUT</t>
         </is>
       </c>
-      <c r="F34" s="7" t="inlineStr">
+      <c r="F34" s="6" t="inlineStr">
         <is>
           <t>{"dstId": "{dst_id}" }</t>
         </is>
       </c>
-      <c r="G34" s="8" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="H34" s="7" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="I34" s="7" t="inlineStr">
+      <c r="G34" s="10" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="H34" s="6" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="I34" s="6" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
       </c>
     </row>
-    <row r="35" ht="50.1" customHeight="1" s="9">
-      <c r="A35" s="5" t="n">
+    <row r="35" ht="50.1" customHeight="1" s="13">
+      <c r="A35" s="4" t="n">
         <v>34</v>
       </c>
-      <c r="B35" s="6" t="inlineStr">
+      <c r="B35" s="12" t="inlineStr">
         <is>
           <t>生成装卸队作业票</t>
         </is>
       </c>
-      <c r="C35" s="6" t="inlineStr">
+      <c r="C35" s="5" t="inlineStr">
         <is>
           <t>/tos/pws/workSheetWk/gen/{pws_id}</t>
         </is>
       </c>
-      <c r="D35" s="6" t="inlineStr">
+      <c r="D35" s="5" t="inlineStr">
         <is>
           <t>生成装卸队作业票</t>
         </is>
       </c>
-      <c r="E35" s="7" t="inlineStr">
+      <c r="E35" s="6" t="inlineStr">
         <is>
           <t>POST</t>
         </is>
       </c>
-      <c r="F35" s="7" t="n"/>
-      <c r="G35" s="8" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="H35" s="7" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="I35" s="7" t="inlineStr">
+      <c r="F35" s="6" t="n"/>
+      <c r="G35" s="10" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="H35" s="6" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+      <c r="I35" s="6" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
       </c>
     </row>
-    <row r="36" ht="50.1" customHeight="1" s="9">
-      <c r="A36" s="5" t="n">
+    <row r="36" ht="50.1" customHeight="1" s="13">
+      <c r="A36" s="4" t="n">
         <v>35</v>
       </c>
-      <c r="B36" s="6" t="inlineStr">
+      <c r="B36" s="12" t="inlineStr">
         <is>
           <t>生成员工作业票</t>
         </is>
       </c>
-      <c r="C36" s="6" t="inlineStr">
+      <c r="C36" s="5" t="inlineStr">
         <is>
           <t>/tos/pws/workSheetMachine/gen/{pws_id}</t>
         </is>
       </c>
-      <c r="D36" s="6" t="inlineStr">
+      <c r="D36" s="5" t="inlineStr">
         <is>
           <t>生成员工作业票</t>
         </is>
       </c>
-      <c r="E36" s="7" t="inlineStr">
+      <c r="E36" s="6" t="inlineStr">
         <is>
           <t>POST</t>
         </is>
       </c>
-      <c r="F36" s="7" t="n"/>
-      <c r="G36" s="8" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="H36" s="7" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="I36" s="7" t="inlineStr">
+      <c r="F36" s="6" t="n"/>
+      <c r="G36" s="10" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="H36" s="6" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+      <c r="I36" s="6" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
       </c>
     </row>
-    <row r="37" ht="50.1" customHeight="1" s="9">
-      <c r="A37" s="5" t="n">
+    <row r="37" ht="50.1" customHeight="1" s="13">
+      <c r="A37" s="4" t="n">
         <v>36</v>
       </c>
-      <c r="B37" s="6" t="inlineStr">
+      <c r="B37" s="12" t="inlineStr">
         <is>
           <t>删除装卸队作业票</t>
         </is>
       </c>
-      <c r="C37" s="6" t="inlineStr">
+      <c r="C37" s="5" t="inlineStr">
         <is>
           <t>/tos/pws/workSheetWk/{wsw_id}</t>
         </is>
       </c>
-      <c r="D37" s="6" t="inlineStr">
+      <c r="D37" s="5" t="inlineStr">
         <is>
           <t>删除装卸队作业票</t>
         </is>
       </c>
-      <c r="E37" s="7" t="inlineStr">
+      <c r="E37" s="6" t="inlineStr">
         <is>
           <t>DELETE</t>
         </is>
       </c>
-      <c r="F37" s="7" t="n"/>
-      <c r="G37" s="8" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="H37" s="7" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="I37" s="7" t="inlineStr">
+      <c r="F37" s="6" t="n"/>
+      <c r="G37" s="10" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="H37" s="6" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="I37" s="6" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
       </c>
     </row>
-    <row r="38" ht="50.1" customHeight="1" s="9">
-      <c r="A38" s="5" t="n">
+    <row r="38" ht="50.1" customHeight="1" s="13">
+      <c r="A38" s="4" t="n">
         <v>37</v>
       </c>
-      <c r="B38" s="6" t="inlineStr">
+      <c r="B38" s="12" t="inlineStr">
         <is>
           <t>作业票中控审核</t>
         </is>
       </c>
-      <c r="C38" s="6" t="inlineStr">
+      <c r="C38" s="5" t="inlineStr">
         <is>
           <t>/tos/pws/workSheet/examine</t>
         </is>
       </c>
-      <c r="D38" s="6" t="inlineStr">
+      <c r="D38" s="5" t="inlineStr">
         <is>
           <t>作业票中控审核</t>
         </is>
       </c>
-      <c r="E38" s="7" t="inlineStr">
+      <c r="E38" s="6" t="inlineStr">
         <is>
           <t>PUT</t>
         </is>
       </c>
-      <c r="F38" s="6" t="inlineStr">
+      <c r="F38" s="5" t="inlineStr">
         <is>
           <t>{
     "pwsId": "{pws_id}",
@@ -2656,47 +2665,47 @@
 }</t>
         </is>
       </c>
-      <c r="G38" s="8" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="H38" s="7" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="I38" s="7" t="inlineStr">
+      <c r="G38" s="10" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="H38" s="6" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+      <c r="I38" s="6" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
       </c>
     </row>
-    <row r="39" ht="50.1" customHeight="1" s="9">
-      <c r="A39" s="5" t="n">
+    <row r="39" ht="50.1" customHeight="1" s="13">
+      <c r="A39" s="4" t="n">
         <v>38</v>
       </c>
-      <c r="B39" s="6" t="inlineStr">
+      <c r="B39" s="12" t="inlineStr">
         <is>
           <t>作业票中控取消审核</t>
         </is>
       </c>
-      <c r="C39" s="6" t="inlineStr">
+      <c r="C39" s="5" t="inlineStr">
         <is>
           <t>/tos/pws/workSheet/examine</t>
         </is>
       </c>
-      <c r="D39" s="6" t="inlineStr">
+      <c r="D39" s="5" t="inlineStr">
         <is>
           <t>作业票中控取消审核</t>
         </is>
       </c>
-      <c r="E39" s="7" t="inlineStr">
+      <c r="E39" s="6" t="inlineStr">
         <is>
           <t>PUT</t>
         </is>
       </c>
-      <c r="F39" s="6" t="inlineStr">
+      <c r="F39" s="5" t="inlineStr">
         <is>
           <t>{
     "pwsId": "{pws_id}",
@@ -2704,47 +2713,47 @@
 }</t>
         </is>
       </c>
-      <c r="G39" s="8" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="H39" s="7" t="inlineStr">
-        <is>
-          <t>500</t>
-        </is>
-      </c>
-      <c r="I39" s="7" t="inlineStr">
+      <c r="G39" s="10" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="H39" s="6" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="I39" s="6" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
       </c>
     </row>
-    <row r="40" ht="50.1" customHeight="1" s="9">
-      <c r="A40" s="5" t="n">
+    <row r="40" ht="50.1" customHeight="1" s="13">
+      <c r="A40" s="4" t="n">
         <v>39</v>
       </c>
-      <c r="B40" s="6" t="inlineStr">
+      <c r="B40" s="12" t="inlineStr">
         <is>
           <t>作业票人事审核</t>
         </is>
       </c>
-      <c r="C40" s="6" t="inlineStr">
+      <c r="C40" s="5" t="inlineStr">
         <is>
           <t>/tos/pws/workSheet/examine</t>
         </is>
       </c>
-      <c r="D40" s="6" t="inlineStr">
+      <c r="D40" s="5" t="inlineStr">
         <is>
           <t>作业票人事审核</t>
         </is>
       </c>
-      <c r="E40" s="7" t="inlineStr">
+      <c r="E40" s="6" t="inlineStr">
         <is>
           <t>PUT</t>
         </is>
       </c>
-      <c r="F40" s="6" t="inlineStr">
+      <c r="F40" s="5" t="inlineStr">
         <is>
           <t>{
     "pwsId": "{pws_id}",
@@ -2752,47 +2761,47 @@
 }</t>
         </is>
       </c>
-      <c r="G40" s="8" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="H40" s="7" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="I40" s="7" t="inlineStr">
+      <c r="G40" s="10" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="H40" s="6" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+      <c r="I40" s="6" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
       </c>
     </row>
-    <row r="41" ht="50.1" customHeight="1" s="9">
-      <c r="A41" s="5" t="n">
+    <row r="41" ht="50.1" customHeight="1" s="13">
+      <c r="A41" s="4" t="n">
         <v>40</v>
       </c>
-      <c r="B41" s="6" t="inlineStr">
+      <c r="B41" s="12" t="inlineStr">
         <is>
           <t>作业票人事取消审核</t>
         </is>
       </c>
-      <c r="C41" s="6" t="inlineStr">
+      <c r="C41" s="5" t="inlineStr">
         <is>
           <t>/tos/pws/workSheet/examine</t>
         </is>
       </c>
-      <c r="D41" s="6" t="inlineStr">
+      <c r="D41" s="5" t="inlineStr">
         <is>
           <t>作业票人事取消审核</t>
         </is>
       </c>
-      <c r="E41" s="7" t="inlineStr">
+      <c r="E41" s="6" t="inlineStr">
         <is>
           <t>PUT</t>
         </is>
       </c>
-      <c r="F41" s="6" t="inlineStr">
+      <c r="F41" s="5" t="inlineStr">
         <is>
           <t>{
     "pwsId": "{pws_id}",
@@ -2800,47 +2809,47 @@
 }</t>
         </is>
       </c>
-      <c r="G41" s="8" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="H41" s="7" t="inlineStr">
+      <c r="G41" s="10" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="H41" s="6" t="inlineStr">
         <is>
           <t>500</t>
         </is>
       </c>
-      <c r="I41" s="7" t="inlineStr">
+      <c r="I41" s="6" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
       </c>
     </row>
-    <row r="42" ht="50.1" customHeight="1" s="9">
-      <c r="A42" s="5" t="n">
+    <row r="42" ht="50.1" customHeight="1" s="13">
+      <c r="A42" s="4" t="n">
         <v>41</v>
       </c>
-      <c r="B42" s="6" t="inlineStr">
+      <c r="B42" s="12" t="inlineStr">
         <is>
           <t>获取操作者信息</t>
         </is>
       </c>
-      <c r="C42" s="6" t="inlineStr">
+      <c r="C42" s="5" t="inlineStr">
         <is>
           <t>/auth/saas/tenant/user/page</t>
         </is>
       </c>
-      <c r="D42" s="6" t="inlineStr">
+      <c r="D42" s="5" t="inlineStr">
         <is>
           <t>根据姓名获取用户ID、工号</t>
         </is>
       </c>
-      <c r="E42" s="7" t="inlineStr">
+      <c r="E42" s="6" t="inlineStr">
         <is>
           <t>GET</t>
         </is>
       </c>
-      <c r="F42" s="6" t="inlineStr">
+      <c r="F42" s="5" t="inlineStr">
         <is>
           <t>{
     "orderItems": "createTime DESC",
@@ -2852,23 +2861,173 @@
 }</t>
         </is>
       </c>
-      <c r="G42" s="8" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="H42" s="7" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="I42" s="7" t="inlineStr">
+      <c r="G42" s="10" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="H42" s="6" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="I42" s="6" t="inlineStr">
         <is>
           <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="43" ht="50.1" customHeight="1" s="13">
+      <c r="A43" s="4" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" s="12" t="inlineStr">
+        <is>
+          <t>取消理货员出勤</t>
+        </is>
+      </c>
+      <c r="C43" s="5" t="inlineStr">
+        <is>
+          <t>/tos/dts/attdWorker/stored</t>
+        </is>
+      </c>
+      <c r="E43" s="6" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="F43" s="8" t="inlineStr">
+        <is>
+          <t>{
+    "dtsAttdWorkerEntities": [],
+    "dawIds": [
+        "{daw_id}"
+    ]
+}</t>
+        </is>
+      </c>
+      <c r="G43" s="10" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="H43" s="0" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+    </row>
+    <row r="44" ht="50.1" customHeight="1" s="13">
+      <c r="A44" s="4" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" s="12" t="inlineStr">
+        <is>
+          <t>取消机械出勤</t>
+        </is>
+      </c>
+      <c r="C44" s="5" t="inlineStr">
+        <is>
+          <t>/tos/dts/yardWorkingMachines/stored</t>
+        </is>
+      </c>
+      <c r="E44" s="6" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="F44" s="8" t="inlineStr">
+        <is>
+          <t>{
+    "dtsYardWorkingMachinesEntities": [],
+    "dywmIds": [
+        "{yma_id}"
+    ]
+}</t>
+        </is>
+      </c>
+      <c r="G44" s="10" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="H44" s="0" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+    </row>
+    <row r="45" ht="50.1" customHeight="1" s="13">
+      <c r="A45" s="4" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" s="12" t="inlineStr">
+        <is>
+          <t>取消司机出勤</t>
+        </is>
+      </c>
+      <c r="C45" s="5" t="inlineStr">
+        <is>
+          <t>/tos/dts/yardWorkingMachines/cutoffDirver</t>
+        </is>
+      </c>
+      <c r="E45" s="6" t="inlineStr">
+        <is>
+          <t>DELETE</t>
+        </is>
+      </c>
+      <c r="F45" s="8" t="inlineStr">
+        <is>
+          <t>{
+    "dywdIds": [
+        "{ydr_id}"
+    ]
+}</t>
+        </is>
+      </c>
+      <c r="G45" s="10" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="H45" s="0" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+    </row>
+    <row r="46" ht="50.1" customHeight="1" s="13">
+      <c r="A46" s="4" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" s="12" t="inlineStr">
+        <is>
+          <t>当班任务导入</t>
+        </is>
+      </c>
+      <c r="C46" s="5" t="inlineStr">
+        <is>
+          <t>/tos/pws/workSheet/import/ticket?dstId={dst_id}</t>
+        </is>
+      </c>
+      <c r="D46" s="5" t="inlineStr">
+        <is>
+          <t>保证作业票数据的生成</t>
+        </is>
+      </c>
+      <c r="E46" s="6" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="G46" s="10" t="inlineStr">
+        <is>
+          <t>200</t>
         </is>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/autoTest/BTOSLJ/PageObject/request_lj/Excel/mainflow.xlsx
+++ b/autoTest/BTOSLJ/PageObject/request_lj/Excel/mainflow.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="185">
   <si>
     <t>case_id</t>
   </si>
@@ -50,9 +50,6 @@
   </si>
   <si>
     <t>新增船舶</t>
-  </si>
-  <si>
-    <t>/tos/bps/vessels</t>
   </si>
   <si>
     <t>新增船舶，
@@ -71,73 +68,15 @@
     <t>删除船舶</t>
   </si>
   <si>
-    <t>/tos/bps/vessels/{vsl_id}</t>
-  </si>
-  <si>
     <t>DELETE</t>
   </si>
   <si>
     <t>新增船期</t>
   </si>
   <si>
-    <t>/tos/bps/schedule</t>
-  </si>
-  <si>
-    <t>{
-    "scdVslId": "{vsl_id}",
-    "scdVslCd": "REQUEST TEST",
-    "vslCnname": "接口测试船",
-    "vslLoa": 150,
-    "vslBreadth": 0,
-    "vslGton": 1000,
-    "vslNetton": 800,
-    "scdEta": "{scd_eta}",
-    "scdEtd": "{scd_etd}",
-    "scdPriorport": "",
-    "scdNextport": "",
-    "scdAta": "",
-    "scdFixscdshpfg": "N",
-    "scdTermcd": "",
-    "bpsIvoyageQuery": {
-        "scdIvoyageId": "",
-        "scdIvoyageSn": "AF",
-        "scdIvoyage": "{voyage}",
-        "scdGoodsIlists": [
-            "{gtypecd}"
-        ],
-        "scdIton": "{gtwg}",
-        "scdIowner": "",
-        "scdIvagt": "AHGJCD",
-        "scdIagtContact": "bsj",
-        "scdIvoyTrade": "{trade_type}"
-    },
-    "bpsEvoyageQuery": {
-        "scdEvoyageId": "",
-        "scdEvoyageSn": "",
-        "scdEvoyage": "",
-        "scdGoodsElists": [],
-        "scdEton": "",
-        "scdEowner": "",
-        "scdEvagt": "",
-        "scdEagtContact": "",
-        "scdEvoyTrade": ""
-    },
-    "bpsShipScheduleEditingVOList": [],
-    "scdStatus": 1,
-    "scdTerStatus": 0,
-    "scdIagtContact": "bsj",
-    "scdEagtContact": "",
-    "scdIton": "{gtwg}",
-    "scdEton": null
-}</t>
-  </si>
-  <si>
     <t>删除船期</t>
   </si>
   <si>
-    <t>/tos/bps/schedule/{scd_id}</t>
-  </si>
-  <si>
     <t>Fail</t>
   </si>
   <si>
@@ -147,85 +86,19 @@
     <t>/tos/bps/schedule/updateScdStatus</t>
   </si>
   <si>
-    <t xml:space="preserve">{
-    "scdId": [
-        "{scd_id}"
-    ],
-    "scdTermcd": "",
-    "scdStatus": 1,
-    "scdTerStatus": ""
-}
-</t>
-  </si>
-  <si>
     <t>取消确报</t>
   </si>
   <si>
-    <t xml:space="preserve">{
-    "scdId": [
-        "{scd_id}"
-    ],
-    "scdTermcd": "",
-    "scdStatus": 2,
-    "scdTerStatus": ""
-}
-</t>
-  </si>
-  <si>
     <t>分区</t>
   </si>
   <si>
-    <t xml:space="preserve">{
-    "scdId": [
-        "{scd_id}"
-    ],
-    "scdTermcd": "L",
-    "scdStatus": 2,
-    "scdTerStatus": "1"
-}
-</t>
-  </si>
-  <si>
     <t>取消分区</t>
   </si>
   <si>
-    <t xml:space="preserve">{
-    "scdId": [
-        "{scd_id}"
-    ],
-    "scdTermcd": "",
-    "scdStatus": 2,
-    "scdTerStatus": "0"
-}
-</t>
-  </si>
-  <si>
     <t>新增靠泊计划</t>
   </si>
   <si>
-    <t>/tos/bps/terminalMonitoring/updateBertdrawing</t>
-  </si>
-  <si>
     <t>PUT</t>
-  </si>
-  <si>
-    <t>{
-    "vbtScdId": "{scd_id}",
-    "vbtId": "",
-    "vbtTermcd": "L",
-    "vbtPstpst": "1053.46",
-    "vbtPedpst": "1203.46",
-    "vbtPbthdirect": "L",
-    "vbtBthPbthno": "L06,L06",
-    "vbtEndBthPbthno": "L06",
-    "vbtPbthdt": "{vbt_pbthdt}",
-    "vbtPdptdt": "{vbt_pdptdt}",
-    "vbtPbthdraft": "20",
-    "vbtPdptdraft": "10",
-    "bowPiles": [],
-    "sternPiles": [],
-    "vbbIdPlan": []
-}</t>
   </si>
   <si>
     <t>新增大船作业计划</t>
@@ -309,47 +182,10 @@
     <t>理货员出勤</t>
   </si>
   <si>
-    <t>/tos/dts/attdWorker/stored</t>
-  </si>
-  <si>
-    <t>{
-    "dtsAttdWorkerEntities": [
-        {
-            "dawEmpNo": "{emp_no}",
-            "dawUserName": "{user_cnname}",
-            "dawUserId": "{user_id}",
-            "dawDeptName": "{user_dept_name}",
-            "dawDeptId": "{user_dept_id}",
-            "dawDate": "{opdate}",
-            "dawShift": "{shift}",
-            "tagName": null,
-            "_XID": "row_2695"
-        }
-    ],
-    "dawIds": [
-        ""
-    ]
-}</t>
-  </si>
-  <si>
     <t>理货员安排</t>
   </si>
   <si>
-    <t>/tos/dts/shiftTaskTally</t>
-  </si>
-  <si>
     <t>取消理货员安排</t>
-  </si>
-  <si>
-    <t>/tos/dts/shiftTaskTally/removeDtsAttworks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{
-    "sttIds": [
-        "{stt_id}"
-    ]
-}
-</t>
   </si>
   <si>
     <t>机械出勤</t>
@@ -462,66 +298,21 @@
     <t>劳务队配置</t>
   </si>
   <si>
-    <t>/tos/dts/shiftTaskConfigMacusr/updateShiftWkgroup</t>
-  </si>
-  <si>
     <t>打开作业票汇报配置，为指导员配置做劳务队配置</t>
   </si>
   <si>
     <t>删除劳务队配置</t>
   </si>
   <si>
-    <t>/tos/dts/shiftTaskConfigMacusr/deleteConfigMacusr</t>
-  </si>
-  <si>
     <t>打开作业票汇报配置，为指导员配置删除劳务队配置</t>
   </si>
   <si>
-    <t>{
-    "stdId": [],
-    "stwIds": [
-        "{stw_id}"
-    ],
-    "tcmStcIds": [
-        "{instructor_config}"
-    ]
-}</t>
-  </si>
-  <si>
     <t>实际靠泊</t>
   </si>
   <si>
     <t>/tos/bps/vesselBerthes/updateVesselBerthes</t>
   </si>
   <si>
-    <t>{
-    "vbtScdId": "{scd_id}",
-    "vbtStatus": "1",
-    "vbtTermcd": "L",
-    "vbtAstpst": 1053.46,
-    "vbtAedpst": 1203,
-    "vbtAbthdirect": "L",
-    "vbtBthAbthno": "L06,L06",
-    "vbtBthAbthnost": "L06",
-    "vbtBthAbthnoed": "L06",
-    "vbtAbthdt": "{vbt_abthdt}",
-    "vbtAbthdraft": 20,
-    "vbtAfrom": "",
-    "vbtAdptdt": "",
-    "vbtAdptdraft": "0",
-    "vbtAto": "",
-    "actualBowPiles": [],
-    "actualSternPiles": [],
-    "vbtIandeGear": "",
-    "vbtId": "{vbt_id}",
-    "vbbIds": "",
-    "scdRStartTime": "{dvp_opsttm}",
-    "scdREndTime": "{dvp_opedtm}",
-    "vbbIdPlan": [],
-    "vbbIdActual": []
-}</t>
-  </si>
-  <si>
     <t>卸船汇报</t>
   </si>
   <si>
@@ -531,12 +322,6 @@
     <t>删除汇报</t>
   </si>
   <si>
-    <t>/tos/wms/WmsGoodsOccupsActivities/remove</t>
-  </si>
-  <si>
-    <t>["{goa_id}"]</t>
-  </si>
-  <si>
     <t>理货动态审核</t>
   </si>
   <si>
@@ -546,9 +331,6 @@
     <t>理货动态</t>
   </si>
   <si>
-    <t>{"goaAduitFlag": "Y" }</t>
-  </si>
-  <si>
     <t>理货动态取消审核</t>
   </si>
   <si>
@@ -558,73 +340,34 @@
     <t>工班任务审核</t>
   </si>
   <si>
-    <t>/tos/dts/shiftTaskAudit</t>
-  </si>
-  <si>
     <t>工班任务取消审核</t>
   </si>
   <si>
-    <t>/tos/dts/shiftTaskAudit/cancel</t>
-  </si>
-  <si>
-    <t>{"dstId": "{dst_id}" }</t>
-  </si>
-  <si>
     <t>生成装卸队作业票</t>
   </si>
   <si>
-    <t>/tos/pws/workSheetWk/gen/{pws_id}</t>
-  </si>
-  <si>
     <t>生成员工作业票</t>
   </si>
   <si>
-    <t>/tos/pws/workSheetMachine/gen/{pws_id}</t>
-  </si>
-  <si>
     <t>删除装卸队作业票</t>
   </si>
   <si>
-    <t>/tos/pws/workSheetWk/{wsw_id}</t>
-  </si>
-  <si>
     <t>作业票中控审核</t>
   </si>
   <si>
     <t>/tos/pws/workSheet/examine</t>
   </si>
   <si>
-    <t>{
-    "pwsId": "{pws_id}",
-    "pwsProdAuditTag": "Y"
-}</t>
-  </si>
-  <si>
     <t>作业票中控取消审核</t>
   </si>
   <si>
-    <t>{
-    "pwsId": "{pws_id}",
-    "pwsProdAuditTag": "N"
-}</t>
-  </si>
-  <si>
     <t>作业票人事审核</t>
   </si>
   <si>
-    <t>{
-    "pwsId": "{pws_id}",
-    "pwsHrAuditTag": "Y"
-}</t>
-  </si>
-  <si>
     <t>作业票人事取消审核</t>
   </si>
   <si>
     <t>获取操作者信息</t>
-  </si>
-  <si>
-    <t>/auth/saas/tenant/user/page</t>
   </si>
   <si>
     <t>根据姓名获取用户ID、工号</t>
@@ -1413,6 +1156,343 @@
   </si>
   <si>
     <t>装卸船-生成员工作业票</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "scdVslId": "{vsl_id}",
+    "scdVslCd": "REQUEST TEST",
+    "vslCnname": "接口测试船",
+    "vslLoa": 150,
+    "vslBreadth": 0,
+    "vslGton": 1000,
+    "vslNetton": 800,
+    "scdEta": "{scd_eta}",
+    "scdEtd": "{scd_etd}",
+    "scdPriorport": "",
+    "scdNextport": "",
+    "scdAta": "",
+    "scdFixscdshpfg": "N",
+    "scdTermcd": "",
+    "bpsIvoyageQuery": {
+        "scdIvoyageId": "",
+        "scdIvoyageSn": "AF",
+        "scdIvoyage": "{voyage}",
+        "scdGoodsIlists": [
+            "{gtypecd}"
+        ],
+        "scdIton": "{gtwg}",
+        "scdIowner": "",
+        "scdIvagt": "AHGJCD",
+        "scdIagtContact": "bsj",
+        "scdIvoyTrade": "{trade_type}"
+    },
+    "bpsEvoyageQuery": {
+        "scdEvoyageId": "",
+        "scdEvoyageSn": "",
+        "scdEvoyage": "",
+        "scdGoodsElists": [],
+        "scdEton": "",
+        "scdEowner": "",
+        "scdEvagt": "",
+        "scdEagtContact": "",
+        "scdEvoyTrade": ""
+    },
+    "bpsShipScheduleEditingVOList": [],
+    "scdStatus": 1,
+    "scdTerStatus": 0,
+    "scdIagtContact": "bsj",
+    "scdEagtContact": "",
+    "scdIton": "{gtwg}",
+    "scdEton": null
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>离泊</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "vbtScdId": "{scd_id}",
+    "vbtStatus": "1",
+    "vbtTermcd": "L",
+    "vbtAstpst": 1053.46,
+    "vbtAedpst": 1203,
+    "vbtAbthdirect": "L",
+    "vbtBthAbthno": "L06,L06",
+    "vbtBthAbthnost": "L06",
+    "vbtBthAbthnoed": "L06",
+    "vbtAbthdt": "{vbt_abthdt}",
+    "vbtAbthdraft": 20,
+    "vbtAfrom": "",
+    "vbtAdptdt": "",
+    "vbtAdptdraft": "0",
+    "vbtAto": "",
+    "actualBowPiles": [],
+    "actualSternPiles": [],
+    "vbtIandeGear": "",
+    "vbtId": "{vbt_id}",
+    "vbbIds": "",
+    "scdRStartTime": "{dvp_opsttm}",
+    "scdREndTime": "{dvp_opedtm}",
+    "vbbIdPlan": [],
+    "vbbIdActual": []
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "vbtScdId": "{scd_id}",
+    "vbtId": "",
+    "vbtTermcd": "L",
+    "vbtPstpst": "1053.46",
+    "vbtPedpst": "1203.46",
+    "vbtPbthdirect": "L",
+    "vbtBthPbthno": "L06,L06",
+    "vbtEndBthPbthno": "L06",
+    "vbtPbthdt": "{vbt_pbthdt}",
+    "vbtPdptdt": "{vbt_pdptdt}",
+    "vbtPbthdraft": "20",
+    "vbtPdptdraft": "10",
+    "bowPiles": [],
+    "sternPiles": [],
+    "vbbIdPlan": []
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>200</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "vbtStatus": "2",
+    "vbtScdId": "{scd_id}",
+    "vbtId": "{vbt_id}",
+    "vbtAdptdt": "{time1}",
+    "vbtAto": "",
+    "vbtAdptdraft": "20",
+    "vbtAbthdt": "{time2}",
+    "vbtAbthdraft": 20,
+    "vbtAedpst": 1203,
+    "vbtAstpst": 1053.46,
+    "scdRStartTime": "{time3}",
+    "scdREndTime": "{time4}",
+    "departureFlag": "Y",
+    "modifyFlag": "N"
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/tos/bps/vesselBerthes/updateVesselBerthes</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/tos/bps/vessels</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/tos/bps/schedule</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/tos/bps/vessels/{vsl_id}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/tos/bps/schedule/{scd_id}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/tos/bps/schedule/updateScdStatus</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+    "scdId": [
+        "{scd_id}"
+    ],
+    "scdTermcd": "",
+    "scdStatus": 1,
+    "scdTerStatus": ""
+}
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+    "scdId": [
+        "{scd_id}"
+    ],
+    "scdTermcd": "",
+    "scdStatus": 2,
+    "scdTerStatus": ""
+}
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+    "scdId": [
+        "{scd_id}"
+    ],
+    "scdTermcd": "L",
+    "scdStatus": 2,
+    "scdTerStatus": "1"
+}
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+    "scdId": [
+        "{scd_id}"
+    ],
+    "scdTermcd": "",
+    "scdStatus": 2,
+    "scdTerStatus": "0"
+}
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/tos/bps/terminalMonitoring/updateBertdrawing</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/auth/saas/tenant/user/page</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/tos/dts/attdWorker/stored</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "dtsAttdWorkerEntities": [
+        {
+            "dawEmpNo": "{emp_no}",
+            "dawUserName": "{user_cnname}",
+            "dawUserId": "{user_id}",
+            "dawDeptName": "{user_dept_name}",
+            "dawDeptId": "{user_dept_id}",
+            "dawDate": "{opdate}",
+            "dawShift": "{shift}",
+            "tagName": null,
+            "_XID": "row_2695"
+        }
+    ],
+    "dawIds": [
+        ""
+    ]
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "pwsId": "{pws_id}",
+    "pwsHrAuditTag": "Y"
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "pwsId": "{pws_id}",
+    "pwsProdAuditTag": "N"
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/tos/dts/shiftTaskTally</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/tos/dts/shiftTaskTally/removeDtsAttworks</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DELETE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+    "sttIds": [
+        "{stt_id}"
+    ]
+}
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/tos/dts/shiftTaskConfigMacusr/updateShiftWkgroup</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "stdId": [],
+    "stwIds": [
+        "{stw_id}"
+    ],
+    "tcmStcIds": [
+        "{instructor_config}"
+    ]
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/tos/dts/shiftTaskConfigMacusr/deleteConfigMacusr</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/tos/wms/WmsGoodsOccupsActivities/remove</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>["{goa_id}"]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/tos/dts/shiftTaskAudit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/tos/wms/WmsGoodsOccupsActivities/task/audit/status/{goa_id}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"goaAduitFlag": "Y" }</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"dstId": "{dst_id}" }</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/tos/dts/shiftTaskAudit/cancel</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/tos/pws/workSheetWk/gen/{pws_id}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/tos/pws/workSheetMachine/gen/{pws_id}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/tos/pws/workSheetWk/{wsw_id}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/tos/pws/workSheet/examine</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "pwsId": "{pws_id}",
+    "pwsProdAuditTag": "Y"
+}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1837,11 +1917,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L56"/>
+  <dimension ref="A1:L57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J42" sqref="J42"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="50.1" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1898,25 +1978,25 @@
         <v>9</v>
       </c>
       <c r="C2" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>12</v>
-      </c>
       <c r="F2" s="5" t="s">
-        <v>139</v>
+        <v>106</v>
       </c>
       <c r="G2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="6" t="s">
         <v>13</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -1924,26 +2004,26 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="6" t="s">
         <v>15</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>17</v>
       </c>
       <c r="F3" s="6"/>
       <c r="G3" s="7">
         <v>200</v>
       </c>
       <c r="H3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="6" t="s">
         <v>13</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -1951,28 +2031,28 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>19</v>
+        <v>152</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>20</v>
+        <v>144</v>
       </c>
       <c r="G4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="6" t="s">
         <v>13</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -1980,26 +2060,26 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>22</v>
+        <v>154</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F5" s="6"/>
       <c r="G5" s="7">
         <v>200</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -2007,28 +2087,28 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>25</v>
+        <v>155</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>26</v>
+        <v>156</v>
       </c>
       <c r="G6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="6" t="s">
         <v>13</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -2036,28 +2116,28 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>25</v>
+        <v>155</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>28</v>
+        <v>157</v>
       </c>
       <c r="G7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" s="6" t="s">
         <v>13</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -2065,28 +2145,28 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>30</v>
+        <v>158</v>
       </c>
       <c r="G8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="6" t="s">
         <v>13</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -2094,28 +2174,28 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>32</v>
+        <v>159</v>
       </c>
       <c r="G9" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" s="6" t="s">
         <v>13</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -2123,28 +2203,28 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>34</v>
+        <v>160</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>36</v>
+        <v>147</v>
       </c>
       <c r="G10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I10" s="6" t="s">
         <v>13</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -2152,28 +2232,28 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>140</v>
+        <v>107</v>
       </c>
       <c r="G11" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I11" s="6" t="s">
         <v>13</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I11" s="6" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -2181,26 +2261,26 @@
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F12" s="6"/>
       <c r="G12" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -2208,28 +2288,28 @@
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="G13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I13" s="6" t="s">
         <v>13</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="I13" s="6" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -2237,26 +2317,26 @@
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F14" s="6"/>
       <c r="G14" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -2264,28 +2344,28 @@
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>143</v>
+        <v>110</v>
       </c>
       <c r="G15" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I15" s="6" t="s">
         <v>13</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I15" s="6" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -2293,26 +2373,26 @@
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F16" s="6"/>
       <c r="G16" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -2320,28 +2400,28 @@
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>52</v>
+        <v>162</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>53</v>
+        <v>163</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -2349,28 +2429,28 @@
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>55</v>
+        <v>166</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>128</v>
+        <v>95</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -2378,28 +2458,28 @@
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>57</v>
+        <v>167</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>17</v>
+        <v>168</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>58</v>
+        <v>169</v>
       </c>
       <c r="G19" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I19" s="6" t="s">
         <v>13</v>
-      </c>
-      <c r="H19" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I19" s="6" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -2407,28 +2487,28 @@
         <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>146</v>
+        <v>113</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -2436,28 +2516,28 @@
         <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -2465,28 +2545,28 @@
         <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I22" s="6" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -2494,28 +2574,28 @@
         <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="I23" s="6" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -2523,28 +2603,28 @@
         <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="G24" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I24" s="6" t="s">
         <v>13</v>
-      </c>
-      <c r="H24" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I24" s="6" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -2552,28 +2632,28 @@
         <v>24</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="G25" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I25" s="6" t="s">
         <v>13</v>
-      </c>
-      <c r="H25" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I25" s="6" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -2581,28 +2661,28 @@
         <v>25</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>78</v>
+        <v>170</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>153</v>
+        <v>120</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I26" s="6" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -2610,28 +2690,28 @@
         <v>26</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>81</v>
+        <v>172</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>83</v>
+        <v>171</v>
       </c>
       <c r="G27" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I27" s="6" t="s">
         <v>13</v>
-      </c>
-      <c r="H27" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I27" s="6" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -2639,28 +2719,28 @@
         <v>27</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>86</v>
+        <v>146</v>
       </c>
       <c r="G28" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H28" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I28" s="6" t="s">
         <v>13</v>
-      </c>
-      <c r="H28" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I28" s="6" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -2668,28 +2748,28 @@
         <v>28</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>164</v>
+        <v>131</v>
       </c>
       <c r="G29" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H29" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I29" s="6" t="s">
         <v>13</v>
-      </c>
-      <c r="H29" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I29" s="6" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -2697,28 +2777,28 @@
         <v>29</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>90</v>
+        <v>173</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>91</v>
+        <v>174</v>
       </c>
       <c r="G30" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H30" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I30" s="6" t="s">
         <v>13</v>
-      </c>
-      <c r="H30" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="I30" s="6" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -2726,28 +2806,28 @@
         <v>30</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>93</v>
+        <v>176</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>95</v>
+        <v>177</v>
       </c>
       <c r="G31" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H31" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I31" s="6" t="s">
         <v>13</v>
-      </c>
-      <c r="H31" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I31" s="6" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -2755,28 +2835,28 @@
         <v>31</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="G32" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H32" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I32" s="6" t="s">
         <v>13</v>
-      </c>
-      <c r="H32" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I32" s="6" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -2784,28 +2864,28 @@
         <v>32</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>99</v>
+        <v>175</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>157</v>
+        <v>124</v>
       </c>
       <c r="G33" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H33" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I33" s="6" t="s">
         <v>13</v>
-      </c>
-      <c r="H33" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I33" s="6" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -2813,28 +2893,28 @@
         <v>33</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>101</v>
+        <v>179</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>102</v>
+        <v>178</v>
       </c>
       <c r="G34" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H34" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I34" s="6" t="s">
         <v>13</v>
-      </c>
-      <c r="H34" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I34" s="6" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -2842,26 +2922,26 @@
         <v>34</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>103</v>
+        <v>77</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>104</v>
+        <v>180</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>103</v>
+        <v>77</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F35" s="6"/>
       <c r="G35" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H35" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I35" s="6" t="s">
         <v>13</v>
-      </c>
-      <c r="H35" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="I35" s="6" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -2869,26 +2949,26 @@
         <v>35</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>176</v>
+        <v>143</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>106</v>
+        <v>181</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>105</v>
+        <v>78</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F36" s="6"/>
       <c r="G36" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H36" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I36" s="6" t="s">
         <v>13</v>
-      </c>
-      <c r="H36" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="I36" s="6" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -2896,26 +2976,26 @@
         <v>36</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>107</v>
+        <v>79</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>108</v>
+        <v>182</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>107</v>
+        <v>79</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F37" s="6"/>
       <c r="G37" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H37" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I37" s="6" t="s">
         <v>13</v>
-      </c>
-      <c r="H37" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I37" s="6" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="38" spans="1:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -2923,28 +3003,28 @@
         <v>37</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>109</v>
+        <v>80</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>110</v>
+        <v>183</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>109</v>
+        <v>80</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>111</v>
+        <v>184</v>
       </c>
       <c r="G38" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H38" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I38" s="6" t="s">
         <v>13</v>
-      </c>
-      <c r="H38" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="I38" s="6" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="39" spans="1:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -2952,28 +3032,28 @@
         <v>38</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>112</v>
+        <v>82</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>110</v>
+        <v>81</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>112</v>
+        <v>82</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>113</v>
+        <v>165</v>
       </c>
       <c r="G39" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H39" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I39" s="6" t="s">
         <v>13</v>
-      </c>
-      <c r="H39" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I39" s="6" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -2981,28 +3061,28 @@
         <v>39</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>114</v>
+        <v>83</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>110</v>
+        <v>81</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>114</v>
+        <v>83</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>115</v>
+        <v>164</v>
       </c>
       <c r="G40" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H40" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I40" s="6" t="s">
         <v>13</v>
-      </c>
-      <c r="H40" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="I40" s="6" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -3010,28 +3090,28 @@
         <v>40</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>116</v>
+        <v>84</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>110</v>
+        <v>81</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>116</v>
+        <v>84</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>133</v>
+        <v>100</v>
       </c>
       <c r="G41" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H41" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I41" s="6" t="s">
         <v>13</v>
-      </c>
-      <c r="H41" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="I41" s="6" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -3039,28 +3119,28 @@
         <v>41</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>117</v>
+        <v>85</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>118</v>
+        <v>161</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>119</v>
+        <v>86</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>120</v>
+        <v>87</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>132</v>
+        <v>99</v>
       </c>
       <c r="G42" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H42" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I42" s="6" t="s">
         <v>13</v>
-      </c>
-      <c r="H42" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I42" s="6" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="43" spans="1:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
@@ -3068,22 +3148,22 @@
         <v>42</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>121</v>
+        <v>88</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>52</v>
+        <v>162</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F43" s="9" t="s">
-        <v>131</v>
+        <v>98</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H43" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" spans="1:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
@@ -3091,22 +3171,22 @@
         <v>43</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>122</v>
+        <v>89</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F44" s="9" t="s">
-        <v>130</v>
+        <v>97</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H44" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" spans="1:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
@@ -3114,22 +3194,22 @@
         <v>44</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>123</v>
+        <v>90</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>124</v>
+        <v>91</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F45" s="9" t="s">
-        <v>129</v>
+        <v>96</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H45" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" spans="1:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
@@ -3137,19 +3217,19 @@
         <v>45</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>125</v>
+        <v>92</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>126</v>
+        <v>93</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>127</v>
+        <v>94</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>120</v>
+        <v>87</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" spans="1:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -3157,22 +3237,22 @@
         <v>46</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>135</v>
+        <v>102</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>137</v>
+        <v>104</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>135</v>
+        <v>102</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>166</v>
+        <v>133</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
@@ -3183,20 +3263,20 @@
         <v>47</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>156</v>
+        <v>123</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>160</v>
+        <v>127</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>156</v>
+        <v>123</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>152</v>
+        <v>119</v>
       </c>
       <c r="F48" s="6"/>
       <c r="G48" s="7" t="s">
-        <v>134</v>
+        <v>101</v>
       </c>
     </row>
     <row r="49" spans="1:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -3204,22 +3284,22 @@
         <v>48</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>138</v>
+        <v>105</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>136</v>
+        <v>103</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>142</v>
+        <v>109</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>141</v>
+        <v>108</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>167</v>
+        <v>134</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
@@ -3230,19 +3310,19 @@
         <v>49</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>147</v>
+        <v>114</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>161</v>
+        <v>128</v>
       </c>
       <c r="D50" s="16" t="s">
-        <v>147</v>
+        <v>114</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>152</v>
+        <v>119</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" spans="1:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -3250,22 +3330,22 @@
         <v>50</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>144</v>
+        <v>111</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>145</v>
+        <v>112</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>144</v>
+        <v>111</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>141</v>
+        <v>108</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>168</v>
+        <v>135</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K51" s="1"/>
     </row>
@@ -3274,20 +3354,20 @@
         <v>51</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>148</v>
+        <v>115</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>149</v>
+        <v>116</v>
       </c>
       <c r="D52" s="4"/>
       <c r="E52" s="6" t="s">
-        <v>141</v>
+        <v>108</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>162</v>
+        <v>129</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J52" s="1"/>
     </row>
@@ -3296,20 +3376,20 @@
         <v>52</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>151</v>
+        <v>118</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>150</v>
+        <v>117</v>
       </c>
       <c r="D53" s="4"/>
       <c r="E53" s="6" t="s">
-        <v>152</v>
+        <v>119</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>163</v>
+        <v>130</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" spans="1:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -3317,22 +3397,22 @@
         <v>53</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>154</v>
+        <v>121</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>155</v>
+        <v>122</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>172</v>
+        <v>139</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>141</v>
+        <v>108</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>169</v>
+        <v>136</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" spans="1:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -3340,22 +3420,22 @@
         <v>54</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>158</v>
+        <v>125</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>159</v>
+        <v>126</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>158</v>
+        <v>125</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>141</v>
+        <v>108</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>165</v>
+        <v>132</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K55" s="1"/>
     </row>
@@ -3364,24 +3444,47 @@
         <v>55</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>170</v>
+        <v>137</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>171</v>
+        <v>138</v>
       </c>
       <c r="D56" s="16" t="s">
-        <v>170</v>
+        <v>137</v>
       </c>
       <c r="E56" s="6" t="s">
-        <v>173</v>
+        <v>140</v>
       </c>
       <c r="F56" s="9" t="s">
-        <v>174</v>
+        <v>141</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>175</v>
+        <v>142</v>
       </c>
       <c r="J56" s="1"/>
+    </row>
+    <row r="57" spans="1:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="3">
+        <v>56</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="E57" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F57" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="G57" s="7" t="s">
+        <v>148</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/autoTest/BTOSLJ/PageObject/request_lj/Excel/mainflow.xlsx
+++ b/autoTest/BTOSLJ/PageObject/request_lj/Excel/mainflow.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="184">
   <si>
     <t>case_id</t>
   </si>
@@ -191,110 +191,27 @@
     <t>机械出勤</t>
   </si>
   <si>
-    <t>/tos/dts/yardWorkingMachines/stored</t>
-  </si>
-  <si>
     <t>安排司机</t>
   </si>
   <si>
-    <t>{
-    "dtsYardWorkingMachinesEntities": [
-        {
-            "ymaId": "{yma_id}",
-            "ymaOpdate": "{opdate}",
-            "ymaShift": "{shift}",
-            "ymaYmcId": "34554326c8da5344006e281755fee32b",
-            "ymaDeptId": "e1c7a9d9bcba4be1b33f149fce9b422c",
-            "ymaDeptName": "机械运行部",
-            "ymaMachinesType": "9",
-            "ymaMachinesTypeName": "门机",
-            "ymaMachinesNo": "4001",
-            "dtsYardWorkingDriverEntityList": [
-                {
-                    "ydrDriver": "13647368bb514aec80a10c41881e1f4e",
-                    "ydrRoleCode": "",
-                    "ydrOvertime": "N"
-                }
-            ]
-        }
-    ],
-    "dywdIds": []
-}</t>
-  </si>
-  <si>
     <t>指导员配置-机械人员配置</t>
   </si>
   <si>
-    <t>/tos/dts/shiftTaskConfig/{instructor_config}/report</t>
-  </si>
-  <si>
     <t>打开作业票汇报配置，为指导员配置做机械安排</t>
   </si>
   <si>
-    <t>{
-    "configId": "{instructor_config}",
-    "machines": [
-        {
-            "drivers": [],
-            "dmcDstId": "{dst_id}",
-            "dmcYmaId": "{yma_id}",
-            "dmcYmcId": "34554326c8da5344006e281755fee32b",
-            "dmcYmcNo": "4001",
-            "dmcMacType": "9",
-            "dmcMacNm": "门机",
-            "dmcDeptId": "e1c7a9d9bcba4be1b33f149fce9b422c",
-            "dmcPosType": "LJQD",
-            "dmcPosNm": "罗泾起点",
-            "dmcSttm": "{dmc_sttm}",
-            "dmcEdtm": "{dmc_edtm}",
-            "dmcLoad": "",
-            "dmcRemark": "",
-            "_XID": "row_5646"
-        }
-    ]
-}</t>
-  </si>
-  <si>
     <t>指导员配置-匹配司机</t>
   </si>
   <si>
-    <t>/tos/dts/shiftTaskConfig/match</t>
-  </si>
-  <si>
     <t>打开作业票汇报配置，为指导员配置的机械匹配司机</t>
   </si>
   <si>
-    <t>{
-    "stcId": "{instructor_config}" 
-}</t>
-  </si>
-  <si>
     <t>取消机械人员配置</t>
   </si>
   <si>
-    <t>/tos/dts/shiftTaskConfigMachine/remove</t>
-  </si>
-  <si>
-    <t>[
-    "{cma_id}"
-]</t>
-  </si>
-  <si>
     <t>删除机械安排</t>
   </si>
   <si>
-    <t>/tos/dts/shiftTaskMachines/deleteMachines</t>
-  </si>
-  <si>
-    <t>{
-    "dmcIds": [
-        "{dmc_id}"
-    ],
-    "stoIds": [],
-    "dmcDstId": "{dst_id}"
-}</t>
-  </si>
-  <si>
     <t>劳务队配置</t>
   </si>
   <si>
@@ -310,9 +227,6 @@
     <t>实际靠泊</t>
   </si>
   <si>
-    <t>/tos/bps/vesselBerthes/updateVesselBerthes</t>
-  </si>
-  <si>
     <t>卸船汇报</t>
   </si>
   <si>
@@ -383,9 +297,6 @@
   </si>
   <si>
     <t>取消司机出勤</t>
-  </si>
-  <si>
-    <t>/tos/dts/yardWorkingMachines/cutoffDirver</t>
   </si>
   <si>
     <t>当班任务导入</t>
@@ -1453,10 +1364,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>/tos/dts/shiftTaskAudit</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>/tos/wms/WmsGoodsOccupsActivities/task/audit/status/{goa_id}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1493,6 +1400,107 @@
     "pwsId": "{pws_id}",
     "pwsProdAuditTag": "Y"
 }</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/tos/dts/yardWorkingMachines/stored</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "dmcIds": [
+        "{dmc_id}"
+    ],
+    "stoIds": [],
+    "dmcDstId": "{dst_id}"
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "dtsYardWorkingMachinesEntities": [
+        {
+            "ymaId": "{yma_id}",
+            "ymaOpdate": "{opdate}",
+            "ymaShift": "{shift}",
+            "ymaYmcId": "34554326c8da5344006e281755fee32b",
+            "ymaDeptId": "e1c7a9d9bcba4be1b33f149fce9b422c",
+            "ymaDeptName": "机械运行部",
+            "ymaMachinesType": "9",
+            "ymaMachinesTypeName": "门机",
+            "ymaMachinesNo": "4001",
+            "dtsYardWorkingDriverEntityList": [
+                {
+                    "ydrDriver": "13647368bb514aec80a10c41881e1f4e",
+                    "ydrRoleCode": "",
+                    "ydrOvertime": "N"
+                }
+            ]
+        }
+    ],
+    "dywdIds": []
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/tos/dts/yardWorkingMachines/cutoffDirver</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/tos/dts/shiftTaskConfig/{instructor_config}/report</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "configId": "{instructor_config}",
+    "machines": [
+        {
+            "drivers": [],
+            "dmcDstId": "{dst_id}",
+            "dmcYmaId": "{yma_id}",
+            "dmcYmcId": "34554326c8da5344006e281755fee32b",
+            "dmcYmcNo": "4001",
+            "dmcMacType": "9",
+            "dmcMacNm": "门机",
+            "dmcDeptId": "e1c7a9d9bcba4be1b33f149fce9b422c",
+            "dmcPosType": "LJQD",
+            "dmcPosNm": "罗泾起点",
+            "dmcSttm": "{dmc_sttm}",
+            "dmcEdtm": "{dmc_edtm}",
+            "dmcLoad": "",
+            "dmcRemark": "",
+            "_XID": "row_5646"
+        }
+    ]
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[
+    "{cma_id}"
+]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/tos/dts/shiftTaskConfig/match</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "stcId": "{instructor_config}" 
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/tos/dts/shiftTaskConfigMachine/remove</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/tos/dts/shiftTaskMachines/deleteMachines</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/tos/bps/vesselBerthes/updateVesselBerthes</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1920,8 +1928,8 @@
   <dimension ref="A1:L57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F40" sqref="F40"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="50.1" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1978,7 +1986,7 @@
         <v>9</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>10</v>
@@ -1987,7 +1995,7 @@
         <v>11</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="G2" s="7" t="s">
         <v>12</v>
@@ -2007,7 +2015,7 @@
         <v>14</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>10</v>
@@ -2034,7 +2042,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>16</v>
@@ -2043,7 +2051,7 @@
         <v>11</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>12</v>
@@ -2063,7 +2071,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>17</v>
@@ -2090,7 +2098,7 @@
         <v>19</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>19</v>
@@ -2099,7 +2107,7 @@
         <v>11</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>12</v>
@@ -2119,7 +2127,7 @@
         <v>21</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>21</v>
@@ -2128,7 +2136,7 @@
         <v>11</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>12</v>
@@ -2157,7 +2165,7 @@
         <v>11</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>12</v>
@@ -2186,7 +2194,7 @@
         <v>11</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="G9" s="7" t="s">
         <v>12</v>
@@ -2206,7 +2214,7 @@
         <v>24</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>24</v>
@@ -2215,7 +2223,7 @@
         <v>25</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>12</v>
@@ -2244,7 +2252,7 @@
         <v>11</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>12</v>
@@ -2356,7 +2364,7 @@
         <v>11</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="G15" s="7" t="s">
         <v>12</v>
@@ -2403,7 +2411,7 @@
         <v>40</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>40</v>
@@ -2412,7 +2420,7 @@
         <v>11</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>12</v>
@@ -2432,7 +2440,7 @@
         <v>41</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>41</v>
@@ -2441,7 +2449,7 @@
         <v>11</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>12</v>
@@ -2461,16 +2469,16 @@
         <v>42</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>42</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>12</v>
@@ -2490,7 +2498,7 @@
         <v>43</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>44</v>
+        <v>172</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>43</v>
@@ -2499,7 +2507,7 @@
         <v>11</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>12</v>
@@ -2516,19 +2524,19 @@
         <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C21" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="D21" s="4" t="s">
         <v>44</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>45</v>
       </c>
       <c r="E21" s="6" t="s">
         <v>11</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>46</v>
+        <v>174</v>
       </c>
       <c r="G21" s="7" t="s">
         <v>12</v>
@@ -2545,19 +2553,19 @@
         <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>48</v>
+        <v>176</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E22" s="6" t="s">
         <v>11</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>50</v>
+        <v>177</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>12</v>
@@ -2574,19 +2582,19 @@
         <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>52</v>
+        <v>179</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E23" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F23" s="6" t="s">
-        <v>54</v>
+      <c r="F23" s="5" t="s">
+        <v>180</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>12</v>
@@ -2603,19 +2611,19 @@
         <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>56</v>
+        <v>181</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E24" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F24" s="6" t="s">
-        <v>57</v>
+      <c r="F24" s="5" t="s">
+        <v>178</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>12</v>
@@ -2632,19 +2640,19 @@
         <v>24</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>59</v>
+        <v>182</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="E25" s="6" t="s">
         <v>15</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>60</v>
+        <v>173</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>12</v>
@@ -2661,19 +2669,19 @@
         <v>25</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="E26" s="6" t="s">
         <v>25</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>12</v>
@@ -2690,19 +2698,19 @@
         <v>26</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="E27" s="6" t="s">
         <v>15</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="G27" s="7" t="s">
         <v>12</v>
@@ -2719,19 +2727,19 @@
         <v>27</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>66</v>
+        <v>183</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="E28" s="6" t="s">
         <v>11</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>12</v>
@@ -2748,19 +2756,19 @@
         <v>28</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="E29" s="6" t="s">
         <v>11</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="G29" s="7" t="s">
         <v>12</v>
@@ -2777,19 +2785,19 @@
         <v>29</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="E30" s="6" t="s">
         <v>11</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="G30" s="7" t="s">
         <v>12</v>
@@ -2806,19 +2814,19 @@
         <v>30</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="E31" s="6" t="s">
         <v>25</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="G31" s="7" t="s">
         <v>12</v>
@@ -2835,19 +2843,19 @@
         <v>31</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="E32" s="6" t="s">
         <v>25</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="G32" s="7" t="s">
         <v>12</v>
@@ -2864,19 +2872,19 @@
         <v>32</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>175</v>
+        <v>114</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="E33" s="6" t="s">
         <v>11</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="G33" s="7" t="s">
         <v>12</v>
@@ -2893,19 +2901,19 @@
         <v>33</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="E34" s="6" t="s">
         <v>25</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="G34" s="7" t="s">
         <v>12</v>
@@ -2922,13 +2930,13 @@
         <v>34</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="E35" s="6" t="s">
         <v>11</v>
@@ -2949,13 +2957,13 @@
         <v>35</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="E36" s="6" t="s">
         <v>11</v>
@@ -2976,13 +2984,13 @@
         <v>36</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="E37" s="6" t="s">
         <v>15</v>
@@ -3003,19 +3011,19 @@
         <v>37</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="E38" s="6" t="s">
         <v>25</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="G38" s="7" t="s">
         <v>12</v>
@@ -3032,19 +3040,19 @@
         <v>38</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="E39" s="6" t="s">
         <v>25</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="G39" s="7" t="s">
         <v>12</v>
@@ -3061,19 +3069,19 @@
         <v>39</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="E40" s="6" t="s">
         <v>25</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="G40" s="7" t="s">
         <v>12</v>
@@ -3090,19 +3098,19 @@
         <v>40</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="E41" s="6" t="s">
         <v>25</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="G41" s="7" t="s">
         <v>12</v>
@@ -3119,19 +3127,19 @@
         <v>41</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="E42" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="F42" s="5" t="s">
         <v>87</v>
-      </c>
-      <c r="F42" s="5" t="s">
-        <v>99</v>
       </c>
       <c r="G42" s="7" t="s">
         <v>12</v>
@@ -3148,16 +3156,16 @@
         <v>42</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="E43" s="6" t="s">
         <v>11</v>
       </c>
       <c r="F43" s="9" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="G43" s="7" t="s">
         <v>12</v>
@@ -3171,16 +3179,16 @@
         <v>43</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>44</v>
+        <v>172</v>
       </c>
       <c r="E44" s="6" t="s">
         <v>11</v>
       </c>
       <c r="F44" s="9" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="G44" s="7" t="s">
         <v>12</v>
@@ -3194,16 +3202,16 @@
         <v>44</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>91</v>
+        <v>175</v>
       </c>
       <c r="E45" s="6" t="s">
         <v>15</v>
       </c>
       <c r="F45" s="9" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="G45" s="7" t="s">
         <v>12</v>
@@ -3217,16 +3225,16 @@
         <v>45</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="G46" s="7" t="s">
         <v>12</v>
@@ -3237,19 +3245,19 @@
         <v>46</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="E47" s="6" t="s">
         <v>11</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="G47" s="7" t="s">
         <v>12</v>
@@ -3263,20 +3271,20 @@
         <v>47</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="F48" s="6"/>
       <c r="G48" s="7" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
     </row>
     <row r="49" spans="1:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -3284,19 +3292,19 @@
         <v>48</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="G49" s="7" t="s">
         <v>12</v>
@@ -3310,16 +3318,16 @@
         <v>49</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="D50" s="16" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="G50" s="7" t="s">
         <v>12</v>
@@ -3330,19 +3338,19 @@
         <v>50</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="G51" s="7" t="s">
         <v>12</v>
@@ -3354,17 +3362,17 @@
         <v>51</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="D52" s="4"/>
       <c r="E52" s="6" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="G52" s="7" t="s">
         <v>12</v>
@@ -3376,17 +3384,17 @@
         <v>52</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="D53" s="4"/>
       <c r="E53" s="6" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="G53" s="7" t="s">
         <v>12</v>
@@ -3397,19 +3405,19 @@
         <v>53</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="G54" s="7" t="s">
         <v>12</v>
@@ -3420,19 +3428,19 @@
         <v>54</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="G55" s="7" t="s">
         <v>12</v>
@@ -3444,22 +3452,22 @@
         <v>55</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="D56" s="16" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="E56" s="6" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="F56" s="9" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="J56" s="1"/>
     </row>
@@ -3468,22 +3476,22 @@
         <v>56</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="E57" s="6" t="s">
         <v>11</v>
       </c>
       <c r="F57" s="9" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
